--- a/EnergyScope_LCA-ANNE_20_02_25/case_studies/SA_FINAL_03-03-2025/2035_REDIFUEL/output/LCA_Operation_final.xlsx
+++ b/EnergyScope_LCA-ANNE_20_02_25/case_studies/SA_FINAL_03-03-2025/2035_REDIFUEL/output/LCA_Operation_final.xlsx
@@ -582,52 +582,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.434464214214748e-07</v>
+        <v>4.182103017594883e-08</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001076999999999984</v>
+        <v>6.999999999998911e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>0.009835653235507573</v>
+        <v>0.0006392717980366139</v>
       </c>
       <c r="E3" t="n">
-        <v>2.616842461074193e-08</v>
+        <v>1.700826112118549e-09</v>
       </c>
       <c r="F3" t="n">
-        <v>1.497610351554997e-07</v>
+        <v>9.733772015676416e-09</v>
       </c>
       <c r="G3" t="n">
-        <v>1.736147678964529e-06</v>
+        <v>1.128415390227483e-07</v>
       </c>
       <c r="H3" t="n">
-        <v>7.689128965754249e-14</v>
+        <v>4.997576857963989e-15</v>
       </c>
       <c r="I3" t="n">
-        <v>1.99140491491656e-12</v>
+        <v>1.294320743213924e-13</v>
       </c>
       <c r="J3" t="n">
-        <v>1.042141990806467e-05</v>
+        <v>6.773439123160855e-07</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0005747779085302592</v>
+        <v>3.735789563334492e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>1.679492709092481e-09</v>
+        <v>1.0915922900321e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>6.084133200491987e-12</v>
+        <v>3.954404122881886e-13</v>
       </c>
       <c r="N3" t="n">
-        <v>6.51939427040563e-07</v>
+        <v>4.237303611219404e-08</v>
       </c>
       <c r="O3" t="n">
-        <v>6.724316863903994e-05</v>
+        <v>4.370493783409594e-06</v>
       </c>
       <c r="P3" t="n">
-        <v>0.003409329805171327</v>
+        <v>0.0002215906094354311</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.158428090256718e-11</v>
+        <v>1.402878053091448e-12</v>
       </c>
     </row>
     <row r="4">
@@ -747,52 +747,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.223221833589287e-09</v>
+        <v>1.883230734231943e-09</v>
       </c>
       <c r="C6" t="n">
-        <v>-8.899999999999999e-05</v>
+        <v>-5.2e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0008035821577353248</v>
+        <v>0.0004695086764296279</v>
       </c>
       <c r="E6" t="n">
-        <v>1.195829752613337e-10</v>
+        <v>6.986870464707138e-11</v>
       </c>
       <c r="F6" t="n">
-        <v>6.945382944861909e-10</v>
+        <v>4.057976552054149e-10</v>
       </c>
       <c r="G6" t="n">
-        <v>6.703528169506003e-09</v>
+        <v>3.916668143981036e-09</v>
       </c>
       <c r="H6" t="n">
-        <v>1.013034629260035e-15</v>
+        <v>5.918854013654135e-16</v>
       </c>
       <c r="I6" t="n">
-        <v>3.931010224769146e-14</v>
+        <v>2.296770018966243e-14</v>
       </c>
       <c r="J6" t="n">
-        <v>8.024427007487401e-08</v>
+        <v>4.688429262801628e-08</v>
       </c>
       <c r="K6" t="n">
-        <v>1.003246140379563e-05</v>
+        <v>5.86166284266711e-06</v>
       </c>
       <c r="L6" t="n">
-        <v>2.812637498592939e-11</v>
+        <v>1.643338763222841e-11</v>
       </c>
       <c r="M6" t="n">
-        <v>6.267140299097772e-14</v>
+        <v>3.661699950034654e-14</v>
       </c>
       <c r="N6" t="n">
-        <v>1.87509739051227e-09</v>
+        <v>1.095562520299304e-09</v>
       </c>
       <c r="O6" t="n">
-        <v>4.01359687306063e-07</v>
+        <v>2.345022892125312e-07</v>
       </c>
       <c r="P6" t="n">
-        <v>6.828942015590107e-06</v>
+        <v>3.989943649558265e-06</v>
       </c>
       <c r="Q6" t="n">
-        <v>5.641066119478355e-14</v>
+        <v>3.295903800144656e-14</v>
       </c>
     </row>
     <row r="7">
@@ -912,52 +912,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.215479570626613e-08</v>
+        <v>3.016307033623183e-08</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001219999999999764</v>
+        <v>5.1e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>0.002994293438214413</v>
+        <v>0.001251712830729218</v>
       </c>
       <c r="E9" t="n">
-        <v>1.46110029788029e-09</v>
+        <v>6.107878294418787e-10</v>
       </c>
       <c r="F9" t="n">
-        <v>4.043632369707137e-08</v>
+        <v>1.690370908648392e-08</v>
       </c>
       <c r="G9" t="n">
-        <v>3.243579075991591e-07</v>
+        <v>1.355922400619698e-07</v>
       </c>
       <c r="H9" t="n">
-        <v>1.120087832077531e-14</v>
+        <v>4.682334379997143e-15</v>
       </c>
       <c r="I9" t="n">
-        <v>8.238454458491378e-13</v>
+        <v>3.443944076910996e-13</v>
       </c>
       <c r="J9" t="n">
-        <v>1.514085764079323e-07</v>
+        <v>6.329374915414787e-08</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0001480005164372014</v>
+        <v>6.186906834671091e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>1.619041237474201e-10</v>
+        <v>6.768123205836083e-11</v>
       </c>
       <c r="M9" t="n">
-        <v>7.042028896904411e-13</v>
+        <v>2.943798965099954e-13</v>
       </c>
       <c r="N9" t="n">
-        <v>7.164978043557639e-08</v>
+        <v>2.995195739520575e-08</v>
       </c>
       <c r="O9" t="n">
-        <v>1.232710254901543e-05</v>
+        <v>5.153133032786133e-06</v>
       </c>
       <c r="P9" t="n">
-        <v>2.270958223277437e-05</v>
+        <v>9.493349949768169e-06</v>
       </c>
       <c r="Q9" t="n">
-        <v>4.474280055073504e-13</v>
+        <v>1.87039576072781e-13</v>
       </c>
     </row>
     <row r="10">
@@ -967,52 +967,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.334205456250956e-06</v>
+        <v>0.008143652258289584</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04872799999999994</v>
+        <v>74.392314</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2528939868315404</v>
+        <v>386.0894942760598</v>
       </c>
       <c r="E10" t="n">
-        <v>8.215427237808502e-08</v>
+        <v>0.0001254237076668863</v>
       </c>
       <c r="F10" t="n">
-        <v>3.069102696512631e-06</v>
+        <v>0.004685553511271027</v>
       </c>
       <c r="G10" t="n">
-        <v>2.054084673425902e-05</v>
+        <v>0.03135940568217191</v>
       </c>
       <c r="H10" t="n">
-        <v>1.310807269662768e-12</v>
+        <v>2.001189993396721e-09</v>
       </c>
       <c r="I10" t="n">
-        <v>3.189694138678831e-11</v>
+        <v>4.869658675269976e-08</v>
       </c>
       <c r="J10" t="n">
-        <v>8.461082619533741e-05</v>
+        <v>0.1291740919004058</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01635088087057286</v>
+        <v>24.96264701814666</v>
       </c>
       <c r="L10" t="n">
-        <v>3.566892055477357e-09</v>
+        <v>5.445521133540823e-06</v>
       </c>
       <c r="M10" t="n">
-        <v>1.041795747307173e-10</v>
+        <v>1.590494096977918e-07</v>
       </c>
       <c r="N10" t="n">
-        <v>9.537588252059235e-06</v>
+        <v>0.0145608943533472</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0005330776691394278</v>
+        <v>0.813841761389929</v>
       </c>
       <c r="P10" t="n">
-        <v>0.01641461746075086</v>
+        <v>25.05995272389719</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.511151038130971e-10</v>
+        <v>3.833736999878209e-07</v>
       </c>
     </row>
     <row r="11">
@@ -1022,52 +1022,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.529997480106032</v>
+        <v>5.488031929638346</v>
       </c>
       <c r="C11" t="n">
-        <v>10124.513254</v>
+        <v>10047.681253</v>
       </c>
       <c r="D11" t="n">
-        <v>244954.5206347409</v>
+        <v>243095.6316687033</v>
       </c>
       <c r="E11" t="n">
-        <v>0.08758486295190175</v>
+        <v>0.08692020677445572</v>
       </c>
       <c r="F11" t="n">
-        <v>3.234814963573932</v>
+        <v>3.210266888986946</v>
       </c>
       <c r="G11" t="n">
-        <v>25.5071664293209</v>
+        <v>25.31359992518991</v>
       </c>
       <c r="H11" t="n">
-        <v>8.901252573625447e-07</v>
+        <v>8.833703543911072e-07</v>
       </c>
       <c r="I11" t="n">
-        <v>6.730154299470589e-05</v>
+        <v>6.679081106232112e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>12.22502111406674</v>
+        <v>12.13224896681415</v>
       </c>
       <c r="K11" t="n">
-        <v>12295.89945966078</v>
+        <v>12202.58943715602</v>
       </c>
       <c r="L11" t="n">
-        <v>0.009212473616911226</v>
+        <v>0.009142562820768276</v>
       </c>
       <c r="M11" t="n">
-        <v>5.818828935132355e-05</v>
+        <v>5.774671526341738e-05</v>
       </c>
       <c r="N11" t="n">
-        <v>5.288524202087559</v>
+        <v>5.248391122443185</v>
       </c>
       <c r="O11" t="n">
-        <v>690.1291978039025</v>
+        <v>684.892007048599</v>
       </c>
       <c r="P11" t="n">
-        <v>1865.613856617469</v>
+        <v>1851.456252977549</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.672439025527648e-05</v>
+        <v>3.644569948585079e-05</v>
       </c>
     </row>
     <row r="12">
@@ -1077,52 +1077,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.49458900415822e-08</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>2.999999999998447e-06</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1.435693130490477e-07</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>8.620478141577122e-14</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1.790932895368881e-08</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.967207639165737e-07</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>8.268596341297201e-18</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>2.892015335446874e-15</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>5.634108055627352e-10</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>1.980197229898016e-08</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1.44288290835939e-14</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1.402024548854918e-14</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>4.712376227342918e-08</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>7.11147327641511e-10</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.195303321809882e-07</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.045345985945656e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1132,52 +1132,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.990709641955789</v>
+        <v>9.9907099682348</v>
       </c>
       <c r="C13" t="n">
-        <v>857.3639710000001</v>
+        <v>857.363999</v>
       </c>
       <c r="D13" t="n">
-        <v>38.38107240636259</v>
+        <v>38.38107365982093</v>
       </c>
       <c r="E13" t="n">
-        <v>2.14412459275276e-05</v>
+        <v>2.1441246627761e-05</v>
       </c>
       <c r="F13" t="n">
-        <v>5.120446118731001</v>
+        <v>5.120446285955769</v>
       </c>
       <c r="G13" t="n">
-        <v>56.24437784841595</v>
+        <v>56.24437968525844</v>
       </c>
       <c r="H13" t="n">
-        <v>2.304913414812952e-09</v>
+        <v>2.304913490087371e-09</v>
       </c>
       <c r="I13" t="n">
-        <v>8.256669554163401e-07</v>
+        <v>8.256669823811711e-07</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1401341020985056</v>
+        <v>0.140134106675039</v>
       </c>
       <c r="K13" t="n">
-        <v>4.925236755311183</v>
+        <v>4.925236916160756</v>
       </c>
       <c r="L13" t="n">
-        <v>3.588804098179638e-06</v>
+        <v>3.58880421538367e-06</v>
       </c>
       <c r="M13" t="n">
-        <v>4.001280693704975e-06</v>
+        <v>4.001280824379767e-06</v>
       </c>
       <c r="N13" t="n">
-        <v>13.47300784342837</v>
+        <v>13.47300828343312</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1768798028629544</v>
+        <v>0.1768798086395378</v>
       </c>
       <c r="P13" t="n">
-        <v>29.73012872372709</v>
+        <v>29.73012969466083</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.087277709113124e-07</v>
+        <v>5.087277875254669e-07</v>
       </c>
     </row>
     <row r="14">
@@ -1187,52 +1187,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.183964622942003e-08</v>
+        <v>3.11994946134572e-09</v>
       </c>
       <c r="C14" t="n">
-        <v>2.799999999999685e-05</v>
+        <v>3.99999999999955e-06</v>
       </c>
       <c r="D14" t="n">
-        <v>7.922110452012659e-07</v>
+        <v>1.131730064573237e-07</v>
       </c>
       <c r="E14" t="n">
-        <v>7.157903401448068e-13</v>
+        <v>1.022557628778296e-13</v>
       </c>
       <c r="F14" t="n">
-        <v>5.791046693053214e-09</v>
+        <v>8.272923847218878e-10</v>
       </c>
       <c r="G14" t="n">
-        <v>1.10176481517473e-07</v>
+        <v>1.5739497359639e-08</v>
       </c>
       <c r="H14" t="n">
-        <v>5.126836542932116e-17</v>
+        <v>7.324052204188738e-18</v>
       </c>
       <c r="I14" t="n">
-        <v>9.230043268496157e-15</v>
+        <v>1.318577609785166e-15</v>
       </c>
       <c r="J14" t="n">
-        <v>4.678209323345496e-09</v>
+        <v>6.683156176207851e-10</v>
       </c>
       <c r="K14" t="n">
-        <v>1.644231358794395e-07</v>
+        <v>2.34890194113485e-08</v>
       </c>
       <c r="L14" t="n">
-        <v>1.198079307012421e-13</v>
+        <v>1.711541867160602e-14</v>
       </c>
       <c r="M14" t="n">
-        <v>1.280019020659414e-13</v>
+        <v>1.82859860094202e-14</v>
       </c>
       <c r="N14" t="n">
-        <v>1.581757599131531e-08</v>
+        <v>2.259653713045044e-09</v>
       </c>
       <c r="O14" t="n">
-        <v>5.904920577541402e-09</v>
+        <v>8.435600825059147e-10</v>
       </c>
       <c r="P14" t="n">
-        <v>9.92504774347476e-07</v>
+        <v>1.417863963353537e-07</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.698326792212257e-14</v>
+        <v>2.426181131731797e-15</v>
       </c>
     </row>
     <row r="15">
@@ -1242,52 +1242,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.425536101322933</v>
+        <v>4.425536469119324</v>
       </c>
       <c r="C15" t="n">
-        <v>3898.552927</v>
+        <v>3898.553251</v>
       </c>
       <c r="D15" t="n">
-        <v>1538.107881759732</v>
+        <v>1538.108009588432</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0001333925929825629</v>
+        <v>0.0001333926040685225</v>
       </c>
       <c r="F15" t="n">
-        <v>2.215859190045872</v>
+        <v>2.215859374200966</v>
       </c>
       <c r="G15" t="n">
-        <v>25.08104127129479</v>
+        <v>25.08104335572394</v>
       </c>
       <c r="H15" t="n">
-        <v>3.437412563904041e-07</v>
+        <v>3.437412849579699e-07</v>
       </c>
       <c r="I15" t="n">
-        <v>1.700620666211422e-05</v>
+        <v>1.700620807546195e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>0.06636743493775712</v>
+        <v>0.06636744045340597</v>
       </c>
       <c r="K15" t="n">
-        <v>5.086345832133727</v>
+        <v>5.086346254848534</v>
       </c>
       <c r="L15" t="n">
-        <v>4.738421562873194e-05</v>
+        <v>4.738421956672796e-05</v>
       </c>
       <c r="M15" t="n">
-        <v>7.227252364206835e-05</v>
+        <v>7.227252964847588e-05</v>
       </c>
       <c r="N15" t="n">
-        <v>6.011588022014084</v>
+        <v>6.011588521623698</v>
       </c>
       <c r="O15" t="n">
-        <v>0.9248726804965226</v>
+        <v>0.9248727573606191</v>
       </c>
       <c r="P15" t="n">
-        <v>11.80862404321996</v>
+        <v>11.80862502460825</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.000144049391633938</v>
+        <v>0.0001440494036055603</v>
       </c>
     </row>
     <row r="16">
@@ -1297,52 +1297,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8.867493995708436e-09</v>
+        <v>9.334204206012136e-10</v>
       </c>
       <c r="C16" t="n">
-        <v>1.899999999999337e-05</v>
+        <v>2e-06</v>
       </c>
       <c r="D16" t="n">
-        <v>7.276970814970681e-06</v>
+        <v>7.659969278919178e-07</v>
       </c>
       <c r="E16" t="n">
-        <v>6.431375693961969e-13</v>
+        <v>6.769869151541277e-14</v>
       </c>
       <c r="F16" t="n">
-        <v>4.132523610334795e-09</v>
+        <v>4.350024852985511e-10</v>
       </c>
       <c r="G16" t="n">
-        <v>4.850136349707301e-08</v>
+        <v>5.105406683904202e-09</v>
       </c>
       <c r="H16" t="n">
-        <v>1.442486303693427e-15</v>
+        <v>1.518406635467295e-16</v>
       </c>
       <c r="I16" t="n">
-        <v>7.198910529506257e-14</v>
+        <v>7.577800557377651e-15</v>
       </c>
       <c r="J16" t="n">
-        <v>3.199832152487577e-10</v>
+        <v>3.368244371040729e-11</v>
       </c>
       <c r="K16" t="n">
-        <v>2.452325142232279e-08</v>
+        <v>2.581394886561194e-09</v>
       </c>
       <c r="L16" t="n">
-        <v>2.284577320660644e-13</v>
+        <v>2.404818232275202e-14</v>
       </c>
       <c r="M16" t="n">
-        <v>4.364927912800307e-13</v>
+        <v>4.594660960844031e-14</v>
       </c>
       <c r="N16" t="n">
-        <v>1.125672737772618e-08</v>
+        <v>1.184918671340011e-09</v>
       </c>
       <c r="O16" t="n">
-        <v>4.459170891244567e-09</v>
+        <v>4.69386409604855e-10</v>
       </c>
       <c r="P16" t="n">
-        <v>5.69339690852455e-08</v>
+        <v>5.993049377396354e-09</v>
       </c>
       <c r="Q16" t="n">
-        <v>6.945181403030536e-13</v>
+        <v>7.310717266350482e-14</v>
       </c>
     </row>
     <row r="17">
@@ -1462,52 +1462,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.234916135285141e-09</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>6.999999999999394e-06</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>3.584729534764203e-06</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>3.177468400615235e-13</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.500514191118291e-09</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.761106715881877e-08</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>5.41537441798853e-16</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>3.229062562512098e-14</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.580900577981695e-10</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1.211589249061121e-08</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1.128712205691329e-13</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.934618316914907e-13</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>4.089634629496913e-09</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>2.203086131817052e-09</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.812864561151572e-08</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.43131788512814e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1517,52 +1517,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.48908207091854</v>
+        <v>1.346943710281617</v>
       </c>
       <c r="C20" t="n">
-        <v>465.654597</v>
+        <v>421.206153</v>
       </c>
       <c r="D20" t="n">
-        <v>11018.67275647575</v>
+        <v>9966.899914274994</v>
       </c>
       <c r="E20" t="n">
-        <v>0.04371133034444438</v>
+        <v>0.03953892308915739</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3331144872908272</v>
+        <v>0.3013174842561185</v>
       </c>
       <c r="G20" t="n">
-        <v>2.603844353834609</v>
+        <v>2.355297833104923</v>
       </c>
       <c r="H20" t="n">
-        <v>4.195135372348886e-07</v>
+        <v>3.794694271001251e-07</v>
       </c>
       <c r="I20" t="n">
-        <v>2.658574243813197e-05</v>
+        <v>2.404803553783966e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>33.87252145691146</v>
+        <v>30.63926469789716</v>
       </c>
       <c r="K20" t="n">
-        <v>4000.691915796815</v>
+        <v>3618.811157556287</v>
       </c>
       <c r="L20" t="n">
-        <v>0.02091466713774786</v>
+        <v>0.018918285233564</v>
       </c>
       <c r="M20" t="n">
-        <v>7.66593164164948e-05</v>
+        <v>6.934190270519656e-05</v>
       </c>
       <c r="N20" t="n">
-        <v>1.171757030447182</v>
+        <v>1.059908512071151</v>
       </c>
       <c r="O20" t="n">
-        <v>230.3540484420359</v>
+        <v>208.365907256888</v>
       </c>
       <c r="P20" t="n">
-        <v>5904.675793760012</v>
+        <v>5341.052771356783</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.0002629699739344668</v>
+        <v>0.0002378685226969788</v>
       </c>
     </row>
     <row r="21">
@@ -1572,52 +1572,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.988867455338497e-09</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>4e-06</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>5.668071325900152e-06</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>2.163883030263599e-11</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>5.085499906972274e-10</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>7.525271171789723e-09</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>2.354587956334217e-16</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.535534824135233e-14</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1.676473704232993e-08</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>1.979827248579509e-06</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1.03520309772668e-11</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>5.347116551144999e-14</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1.464126799382035e-09</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1.140552905628528e-07</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>2.922460414588222e-06</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.437125985438722e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1627,52 +1627,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7.097756757299546e-07</v>
+        <v>3.072621972856141e-09</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0002309999999999994</v>
+        <v>9.999999999997353e-07</v>
       </c>
       <c r="D22" t="n">
-        <v>0.005274439108700131</v>
+        <v>2.283306973462662e-05</v>
       </c>
       <c r="E22" t="n">
-        <v>2.082285164130262e-08</v>
+        <v>9.01422148973903e-11</v>
       </c>
       <c r="F22" t="n">
-        <v>1.586895777383162e-07</v>
+        <v>6.869678689968599e-10</v>
       </c>
       <c r="G22" t="n">
-        <v>1.240591146947596e-06</v>
+        <v>5.370524445659182e-09</v>
       </c>
       <c r="H22" t="n">
-        <v>2.003904473531211e-13</v>
+        <v>8.67491114082548e-16</v>
       </c>
       <c r="I22" t="n">
-        <v>1.279371712368292e-11</v>
+        <v>5.538405681246568e-14</v>
       </c>
       <c r="J22" t="n">
-        <v>1.613347167323547e-05</v>
+        <v>6.984186871528675e-08</v>
       </c>
       <c r="K22" t="n">
-        <v>0.001905346289727884</v>
+        <v>8.248252336482182e-06</v>
       </c>
       <c r="L22" t="n">
-        <v>9.962073293039878e-09</v>
+        <v>4.312585841141674e-11</v>
       </c>
       <c r="M22" t="n">
-        <v>3.734394840104208e-11</v>
+        <v>1.616621142901831e-13</v>
       </c>
       <c r="N22" t="n">
-        <v>5.583333866084007e-07</v>
+        <v>2.41702764765478e-09</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0001097488852485619</v>
+        <v>4.75103399344299e-07</v>
       </c>
       <c r="P22" t="n">
-        <v>0.002812411122008737</v>
+        <v>1.217493992211255e-05</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.34746629670101e-10</v>
+        <v>5.833187431604574e-13</v>
       </c>
     </row>
     <row r="23">
@@ -1682,52 +1682,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.87496649758919</v>
+        <v>2.297351939146122</v>
       </c>
       <c r="C23" t="n">
-        <v>3184.40943</v>
+        <v>3901.781279</v>
       </c>
       <c r="D23" t="n">
-        <v>3981.455818578834</v>
+        <v>4878.383297620279</v>
       </c>
       <c r="E23" t="n">
-        <v>0.01515041660973834</v>
+        <v>0.01856344581196888</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3214898731430216</v>
+        <v>0.3939139096248457</v>
       </c>
       <c r="G23" t="n">
-        <v>7.276365035914062</v>
+        <v>8.915557342857023</v>
       </c>
       <c r="H23" t="n">
-        <v>1.925243685613053e-07</v>
+        <v>2.358955384087645e-07</v>
       </c>
       <c r="I23" t="n">
-        <v>1.439090084248343e-05</v>
+        <v>1.763282917270697e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>11.73753506409798</v>
+        <v>14.3817230734377</v>
       </c>
       <c r="K23" t="n">
-        <v>1386.119751668525</v>
+        <v>1698.379626238069</v>
       </c>
       <c r="L23" t="n">
-        <v>0.007247841755859016</v>
+        <v>0.008880608444927635</v>
       </c>
       <c r="M23" t="n">
-        <v>4.371975752403345e-05</v>
+        <v>5.35687810187439e-05</v>
       </c>
       <c r="N23" t="n">
-        <v>1.379677016609606</v>
+        <v>1.69048549591625</v>
       </c>
       <c r="O23" t="n">
-        <v>79.85748098653886</v>
+        <v>97.84747569390778</v>
       </c>
       <c r="P23" t="n">
-        <v>2046.110994593884</v>
+        <v>2507.051228479275</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.0001017333554379595</v>
+        <v>0.0001246514653417802</v>
       </c>
     </row>
     <row r="24">
@@ -1737,52 +1737,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.949276651016015e-09</v>
+        <v>2.59903553468802e-09</v>
       </c>
       <c r="C24" t="n">
-        <v>3e-06</v>
+        <v>4e-06</v>
       </c>
       <c r="D24" t="n">
-        <v>5.394994112490591e-06</v>
+        <v>7.193325483320787e-06</v>
       </c>
       <c r="E24" t="n">
-        <v>2.055609303633294e-11</v>
+        <v>2.740812404844391e-11</v>
       </c>
       <c r="F24" t="n">
-        <v>3.458884925565376e-10</v>
+        <v>4.611846567420501e-10</v>
       </c>
       <c r="G24" t="n">
-        <v>7.078872315832751e-09</v>
+        <v>9.438496421110333e-09</v>
       </c>
       <c r="H24" t="n">
-        <v>2.417499961402751e-16</v>
+        <v>3.223333281870334e-16</v>
       </c>
       <c r="I24" t="n">
-        <v>1.769352140497147e-14</v>
+        <v>2.359136187329529e-14</v>
       </c>
       <c r="J24" t="n">
-        <v>1.592549360258057e-08</v>
+        <v>2.123399147010742e-08</v>
       </c>
       <c r="K24" t="n">
-        <v>1.880687990882187e-06</v>
+        <v>2.507583987842916e-06</v>
       </c>
       <c r="L24" t="n">
-        <v>9.833875416355943e-12</v>
+        <v>1.311183388847459e-11</v>
       </c>
       <c r="M24" t="n">
-        <v>5.422942717553058e-14</v>
+        <v>7.230590290070744e-14</v>
       </c>
       <c r="N24" t="n">
-        <v>1.445320436883105e-09</v>
+        <v>1.927093915844139e-09</v>
       </c>
       <c r="O24" t="n">
-        <v>1.083506712119933e-07</v>
+        <v>1.444675616159911e-07</v>
       </c>
       <c r="P24" t="n">
-        <v>2.776164448210644e-06</v>
+        <v>3.701552597614191e-06</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.380318689016658e-13</v>
+        <v>1.840424918688877e-13</v>
       </c>
     </row>
     <row r="25">
@@ -1792,52 +1792,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3.596238061856865e-09</v>
+        <v>1.798119030928432e-09</v>
       </c>
       <c r="C25" t="n">
-        <v>6e-06</v>
+        <v>3e-06</v>
       </c>
       <c r="D25" t="n">
-        <v>8.072294894836882e-06</v>
+        <v>4.036147447418441e-06</v>
       </c>
       <c r="E25" t="n">
-        <v>3.072636880265454e-11</v>
+        <v>1.536318440132727e-11</v>
       </c>
       <c r="F25" t="n">
-        <v>6.206716377746361e-10</v>
+        <v>3.10335818887318e-10</v>
       </c>
       <c r="G25" t="n">
-        <v>1.378766893394557e-08</v>
+        <v>6.893834466972786e-09</v>
       </c>
       <c r="H25" t="n">
-        <v>3.83700996590632e-16</v>
+        <v>1.91850498295316e-16</v>
       </c>
       <c r="I25" t="n">
-        <v>2.855026637658591e-14</v>
+        <v>1.427513318829296e-14</v>
       </c>
       <c r="J25" t="n">
-        <v>2.380474679367862e-08</v>
+        <v>1.190237339683931e-08</v>
       </c>
       <c r="K25" t="n">
-        <v>2.81117198236218e-06</v>
+        <v>1.40558599118109e-06</v>
       </c>
       <c r="L25" t="n">
-        <v>1.469925643303149e-11</v>
+        <v>7.349628216515743e-12</v>
       </c>
       <c r="M25" t="n">
-        <v>8.690137399676811e-14</v>
+        <v>4.345068699838406e-14</v>
       </c>
       <c r="N25" t="n">
-        <v>2.650063246378542e-09</v>
+        <v>1.325031623189271e-09</v>
       </c>
       <c r="O25" t="n">
-        <v>1.619579497811409e-07</v>
+        <v>8.097897489057045e-08</v>
       </c>
       <c r="P25" t="n">
-        <v>4.149691896303819e-06</v>
+        <v>2.07484594815191e-06</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.063241347903944e-13</v>
+        <v>1.031620673951972e-13</v>
       </c>
     </row>
     <row r="26">
@@ -1847,52 +1847,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4.131890394545083e-09</v>
+        <v>2.47913423672705e-09</v>
       </c>
       <c r="C26" t="n">
-        <v>5e-06</v>
+        <v>3e-06</v>
       </c>
       <c r="D26" t="n">
-        <v>9.002568932965343e-06</v>
+        <v>5.401541359779206e-06</v>
       </c>
       <c r="E26" t="n">
-        <v>3.425684472940681e-11</v>
+        <v>2.055410683764409e-11</v>
       </c>
       <c r="F26" t="n">
-        <v>7.139111850863518e-10</v>
+        <v>4.283467110518111e-10</v>
       </c>
       <c r="G26" t="n">
-        <v>1.619312619636783e-08</v>
+        <v>9.715875717820697e-09</v>
       </c>
       <c r="H26" t="n">
-        <v>3.36818076215899e-16</v>
+        <v>2.020908457295394e-16</v>
       </c>
       <c r="I26" t="n">
-        <v>2.729340105991063e-14</v>
+        <v>1.637604063594638e-14</v>
       </c>
       <c r="J26" t="n">
-        <v>2.653963382939337e-08</v>
+        <v>1.592378029763602e-08</v>
       </c>
       <c r="K26" t="n">
-        <v>3.134121126619887e-06</v>
+        <v>1.880472675971932e-06</v>
       </c>
       <c r="L26" t="n">
-        <v>1.63880794746611e-11</v>
+        <v>9.83284768479666e-12</v>
       </c>
       <c r="M26" t="n">
-        <v>9.735731804294746e-14</v>
+        <v>5.841439082576848e-14</v>
       </c>
       <c r="N26" t="n">
-        <v>2.563923832059793e-09</v>
+        <v>1.538354299235875e-09</v>
       </c>
       <c r="O26" t="n">
-        <v>1.805687479070659e-07</v>
+        <v>1.083412487442395e-07</v>
       </c>
       <c r="P26" t="n">
-        <v>4.626444851668882e-06</v>
+        <v>2.77586691100133e-06</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.311570434227209e-13</v>
+        <v>1.386942260536325e-13</v>
       </c>
     </row>
     <row r="27">
@@ -1902,52 +1902,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.714029304451189e-07</v>
+        <v>1.562031254360374e-07</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0002779999999999981</v>
+        <v>0.0001599999999999966</v>
       </c>
       <c r="D27" t="n">
-        <v>0.001286776508083782</v>
+        <v>0.0007405907960194323</v>
       </c>
       <c r="E27" t="n">
-        <v>5.031025696585928e-09</v>
+        <v>2.895554357747255e-09</v>
       </c>
       <c r="F27" t="n">
-        <v>5.348148957914615e-08</v>
+        <v>3.078071342684626e-08</v>
       </c>
       <c r="G27" t="n">
-        <v>7.683472967794966e-07</v>
+        <v>4.422142715277614e-07</v>
       </c>
       <c r="H27" t="n">
-        <v>5.185334169282662e-14</v>
+        <v>2.984364989515158e-14</v>
       </c>
       <c r="I27" t="n">
-        <v>3.485014000738093e-12</v>
+        <v>2.005763453662183e-12</v>
       </c>
       <c r="J27" t="n">
-        <v>3.897850573678728e-06</v>
+        <v>2.243367236649595e-06</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0004603194437103312</v>
+        <v>0.0002649320539339997</v>
       </c>
       <c r="L27" t="n">
-        <v>2.406868753323546e-09</v>
+        <v>1.385248203351661e-09</v>
       </c>
       <c r="M27" t="n">
-        <v>1.029932358187186e-11</v>
+        <v>5.927668248559261e-12</v>
       </c>
       <c r="N27" t="n">
-        <v>2.062342021716723e-07</v>
+        <v>1.186959436959248e-07</v>
       </c>
       <c r="O27" t="n">
-        <v>2.651753661931214e-05</v>
+        <v>1.526189157946001e-05</v>
       </c>
       <c r="P27" t="n">
-        <v>0.0006794802947293616</v>
+        <v>0.0003910677955276845</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.321559677772222e-11</v>
+        <v>1.911689023178229e-11</v>
       </c>
     </row>
     <row r="28">
@@ -1957,52 +1957,52 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.152362664584612e-06</v>
+        <v>3.653513447944321e-07</v>
       </c>
       <c r="C28" t="n">
-        <v>0.003519999999999997</v>
+        <v>0.001115999999999976</v>
       </c>
       <c r="D28" t="n">
-        <v>5.370309514685427e-05</v>
+        <v>1.702632221133185e-05</v>
       </c>
       <c r="E28" t="n">
-        <v>4.760533580156786e-09</v>
+        <v>1.509305532799677e-09</v>
       </c>
       <c r="F28" t="n">
-        <v>6.044919124684877e-07</v>
+        <v>1.916514131576188e-07</v>
       </c>
       <c r="G28" t="n">
-        <v>6.41167212015873e-06</v>
+        <v>2.032791501732101e-06</v>
       </c>
       <c r="H28" t="n">
-        <v>5.570520132321425e-14</v>
+        <v>1.766108087406415e-14</v>
       </c>
       <c r="I28" t="n">
-        <v>6.43325239295038e-13</v>
+        <v>2.039633429128544e-13</v>
       </c>
       <c r="J28" t="n">
-        <v>2.578669012788858e-07</v>
+        <v>8.175552892819051e-08</v>
       </c>
       <c r="K28" t="n">
-        <v>3.939704205867103e-05</v>
+        <v>1.249065310723749e-05</v>
       </c>
       <c r="L28" t="n">
-        <v>2.545021296911206e-11</v>
+        <v>8.068874339070588e-12</v>
       </c>
       <c r="M28" t="n">
-        <v>9.317063984565349e-12</v>
+        <v>2.953932786015544e-12</v>
       </c>
       <c r="N28" t="n">
-        <v>1.652709980626657e-06</v>
+        <v>5.239841870395769e-07</v>
       </c>
       <c r="O28" t="n">
-        <v>9.043509207773996e-06</v>
+        <v>2.86720348746465e-06</v>
       </c>
       <c r="P28" t="n">
-        <v>1.423281376672453e-05</v>
+        <v>4.512448910131889e-06</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.651109817273364e-13</v>
+        <v>8.40522317067333e-14</v>
       </c>
     </row>
     <row r="29">
@@ -2012,52 +2012,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.703377888516291e-08</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>9.999999999998096e-07</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>2.423979816128176e-06</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1.894846653556111e-10</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>4.180407741162255e-09</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>8.321013252972704e-08</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>3.053535418483358e-16</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.041449016423711e-14</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.000244025029983e-08</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>1.550455442912187e-06</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>8.693495803304271e-13</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>8.287070894033722e-14</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>7.948021550321779e-09</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>3.569058175767541e-07</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>5.4820251964944e-07</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.18515318691236e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2232,52 +2232,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>7.202507329184598e-08</v>
+        <v>5.207966838025183e-08</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0003249999999999845</v>
+        <v>0.0002349999999999616</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0004222894689711147</v>
+        <v>0.000305347769871386</v>
       </c>
       <c r="E33" t="n">
-        <v>6.993791855252223e-10</v>
+        <v>5.057049495335637e-10</v>
       </c>
       <c r="F33" t="n">
-        <v>1.058738877065459e-07</v>
+        <v>7.655496495703201e-08</v>
       </c>
       <c r="G33" t="n">
-        <v>3.252284693857651e-07</v>
+        <v>2.35165200940449e-07</v>
       </c>
       <c r="H33" t="n">
-        <v>1.120784621836185e-14</v>
+        <v>8.104134957891474e-15</v>
       </c>
       <c r="I33" t="n">
-        <v>1.3409877204847e-13</v>
+        <v>9.696372748119013e-14</v>
       </c>
       <c r="J33" t="n">
-        <v>1.633589802880711e-06</v>
+        <v>1.181211088236685e-06</v>
       </c>
       <c r="K33" t="n">
-        <v>8.904255958988244e-05</v>
+        <v>6.438462001113831e-05</v>
       </c>
       <c r="L33" t="n">
-        <v>1.194507872649539e-10</v>
+        <v>8.6372107714649e-11</v>
       </c>
       <c r="M33" t="n">
-        <v>3.790119010725981e-13</v>
+        <v>2.740547592370777e-13</v>
       </c>
       <c r="N33" t="n">
-        <v>8.066966244451476e-08</v>
+        <v>5.8330371306027e-08</v>
       </c>
       <c r="O33" t="n">
-        <v>2.694751922814311e-06</v>
+        <v>1.948512928803968e-06</v>
       </c>
       <c r="P33" t="n">
-        <v>2.545103425933924e-05</v>
+        <v>1.840305554136624e-05</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.961660992557632e-13</v>
+        <v>2.141508717695271e-13</v>
       </c>
     </row>
     <row r="34">
@@ -2342,28 +2342,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4.897831397384112e-08</v>
+        <v>5.055825958589945e-08</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0001549999999999947</v>
+        <v>0.0001599999999999911</v>
       </c>
       <c r="D35" t="n">
-        <v>1.358854179467582e-07</v>
+        <v>1.40268818525683e-07</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>2.470104952846326e-08</v>
+        <v>2.549785757776799e-08</v>
       </c>
       <c r="G35" t="n">
-        <v>2.705050823440505e-07</v>
+        <v>2.792310527422399e-07</v>
       </c>
       <c r="H35" t="n">
-        <v>7.663009459327097e-15</v>
+        <v>7.910203312853612e-15</v>
       </c>
       <c r="I35" t="n">
-        <v>5.349103255234218e-14</v>
+        <v>5.521654973144884e-14</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -2375,10 +2375,10 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1.795904656035146e-13</v>
+        <v>1.853837064294306e-13</v>
       </c>
       <c r="N35" t="n">
-        <v>7.02936188132965e-08</v>
+        <v>7.256115490404648e-08</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -2397,28 +2397,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3.435606033921062e-07</v>
+        <v>2.130608393129219e-07</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0002579999999999979</v>
+        <v>0.0001599999999999895</v>
       </c>
       <c r="D36" t="n">
-        <v>9.030925590508817e-05</v>
+        <v>5.600574009617551e-05</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>6.767295509708704e-08</v>
+        <v>4.196772409121438e-08</v>
       </c>
       <c r="G36" t="n">
-        <v>7.475967421794898e-07</v>
+        <v>4.636258866229129e-07</v>
       </c>
       <c r="H36" t="n">
-        <v>8.126370682601662e-14</v>
+        <v>5.039609725644154e-14</v>
       </c>
       <c r="I36" t="n">
-        <v>3.732643353470775e-13</v>
+        <v>2.314817583547635e-13</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -2430,10 +2430,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1.671222497088478e-12</v>
+        <v>1.036417052457912e-12</v>
       </c>
       <c r="N36" t="n">
-        <v>1.917556014760162e-07</v>
+        <v>1.189182024657397e-07</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -2452,52 +2452,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3.900580148173881e-07</v>
+        <v>1.064651103245142e-07</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0004139999999999998</v>
+        <v>0.000112999999999959</v>
       </c>
       <c r="D37" t="n">
-        <v>0.005671093989069062</v>
+        <v>0.001547907296532782</v>
       </c>
       <c r="E37" t="n">
-        <v>5.929621633278508e-10</v>
+        <v>1.618471605217943e-10</v>
       </c>
       <c r="F37" t="n">
-        <v>1.877590109194381e-07</v>
+        <v>5.124823244900679e-08</v>
       </c>
       <c r="G37" t="n">
-        <v>2.142456236135559e-06</v>
+        <v>5.847767021334067e-07</v>
       </c>
       <c r="H37" t="n">
-        <v>4.601483915384831e-14</v>
+        <v>1.255960585599752e-14</v>
       </c>
       <c r="I37" t="n">
-        <v>2.642880339076119e-12</v>
+        <v>7.213658896509497e-13</v>
       </c>
       <c r="J37" t="n">
-        <v>1.791484824320066e-09</v>
+        <v>4.88980157362546e-10</v>
       </c>
       <c r="K37" t="n">
-        <v>8.8989588175104e-07</v>
+        <v>2.428942865648093e-07</v>
       </c>
       <c r="L37" t="n">
-        <v>4.565738221842077e-13</v>
+        <v>1.246203910792192e-13</v>
       </c>
       <c r="M37" t="n">
-        <v>9.664228780267841e-12</v>
+        <v>2.637820898961038e-12</v>
       </c>
       <c r="N37" t="n">
-        <v>5.087748522995399e-07</v>
+        <v>1.388684983329158e-07</v>
       </c>
       <c r="O37" t="n">
-        <v>1.378661022287364e-05</v>
+        <v>3.763011969043856e-06</v>
       </c>
       <c r="P37" t="n">
-        <v>3.256428146960616e-07</v>
+        <v>8.888318372135656e-08</v>
       </c>
       <c r="Q37" t="n">
-        <v>4.80450985481131e-15</v>
+        <v>1.311375878245123e-15</v>
       </c>
     </row>
     <row r="38">
@@ -2507,52 +2507,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4.297436712980814e-07</v>
+        <v>3.052057094116908e-07</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0004899999999999956</v>
+        <v>0.000347999999999988</v>
       </c>
       <c r="D38" t="n">
-        <v>2.125048448774901e-05</v>
+        <v>1.509218081987034e-05</v>
       </c>
       <c r="E38" t="n">
-        <v>9.057888652345911e-11</v>
+        <v>6.432949491869993e-11</v>
       </c>
       <c r="F38" t="n">
-        <v>2.230083980863024e-07</v>
+        <v>1.583814745592475e-07</v>
       </c>
       <c r="G38" t="n">
-        <v>2.430113371377748e-06</v>
+        <v>1.72587643518252e-06</v>
       </c>
       <c r="H38" t="n">
-        <v>4.08990384109286e-16</v>
+        <v>2.904666401429141e-16</v>
       </c>
       <c r="I38" t="n">
-        <v>1.427598897904573e-12</v>
+        <v>1.013886564226079e-12</v>
       </c>
       <c r="J38" t="n">
-        <v>6.252456414685724e-08</v>
+        <v>4.440520065939952e-08</v>
       </c>
       <c r="K38" t="n">
-        <v>2.972359852701189e-05</v>
+        <v>2.110982099469362e-05</v>
       </c>
       <c r="L38" t="n">
-        <v>7.613121410700585e-12</v>
+        <v>5.406869899844358e-12</v>
       </c>
       <c r="M38" t="n">
-        <v>1.269066388743989e-12</v>
+        <v>9.012961291487691e-13</v>
       </c>
       <c r="N38" t="n">
-        <v>7.211053407137804e-07</v>
+        <v>5.121319562620188e-07</v>
       </c>
       <c r="O38" t="n">
-        <v>1.200708258762116e-06</v>
+        <v>8.527479062228686e-07</v>
       </c>
       <c r="P38" t="n">
-        <v>1.1906763196215e-05</v>
+        <v>8.456231820985133e-06</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.518607519678304e-13</v>
+        <v>1.078521258873544e-13</v>
       </c>
     </row>
     <row r="39">
@@ -2562,52 +2562,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>5.858300285268766e-06</v>
+        <v>3.158887408723383e-06</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0006119999999999799</v>
+        <v>0.0003299999999999921</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0001188477850904002</v>
+        <v>6.408458999972619e-05</v>
       </c>
       <c r="E39" t="n">
-        <v>3.140628257385361e-10</v>
+        <v>1.693476021139181e-10</v>
       </c>
       <c r="F39" t="n">
-        <v>6.916033406270933e-07</v>
+        <v>3.72923369945985e-07</v>
       </c>
       <c r="G39" t="n">
-        <v>6.886800245975298e-06</v>
+        <v>3.713470720869067e-06</v>
       </c>
       <c r="H39" t="n">
-        <v>1.771761621817621e-13</v>
+        <v>9.553616588232355e-14</v>
       </c>
       <c r="I39" t="n">
-        <v>4.852907096524294e-13</v>
+        <v>2.616763630478809e-13</v>
       </c>
       <c r="J39" t="n">
-        <v>1.175169454329348e-07</v>
+        <v>6.336698038050464e-08</v>
       </c>
       <c r="K39" t="n">
-        <v>5.875520944603186e-06</v>
+        <v>3.168173058364491e-06</v>
       </c>
       <c r="L39" t="n">
-        <v>1.066165126027617e-11</v>
+        <v>5.748929601129359e-12</v>
       </c>
       <c r="M39" t="n">
-        <v>3.914465769294464e-11</v>
+        <v>2.110741346188211e-11</v>
       </c>
       <c r="N39" t="n">
-        <v>1.92130174138403e-06</v>
+        <v>1.03599603702081e-06</v>
       </c>
       <c r="O39" t="n">
-        <v>4.661913564445141e-06</v>
+        <v>2.513776922004756e-06</v>
       </c>
       <c r="P39" t="n">
-        <v>2.4704673068957e-05</v>
+        <v>1.332114724306516e-05</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.164422026745116e-13</v>
+        <v>1.167090308539043e-13</v>
       </c>
     </row>
     <row r="40">
@@ -2672,52 +2672,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.03859048796447661</v>
+        <v>0.03850143748576976</v>
       </c>
       <c r="C41" t="n">
-        <v>1222.169568</v>
+        <v>1219.349319</v>
       </c>
       <c r="D41" t="n">
-        <v>207.2002646140161</v>
+        <v>206.7221342838413</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0006756867991390725</v>
+        <v>0.0006741276005880042</v>
       </c>
       <c r="F41" t="n">
-        <v>0.004875794608342394</v>
+        <v>0.004864543342373723</v>
       </c>
       <c r="G41" t="n">
-        <v>0.05088866762154895</v>
+        <v>0.05077123816026243</v>
       </c>
       <c r="H41" t="n">
-        <v>2.720956744392242e-08</v>
+        <v>2.714677930274841e-08</v>
       </c>
       <c r="I41" t="n">
-        <v>2.667546438736143e-07</v>
+        <v>2.661390872951101e-07</v>
       </c>
       <c r="J41" t="n">
-        <v>0.3361775843582697</v>
+        <v>0.3354018290777153</v>
       </c>
       <c r="K41" t="n">
-        <v>25.76437460120493</v>
+        <v>25.70492135215735</v>
       </c>
       <c r="L41" t="n">
-        <v>0.0002400199911555714</v>
+        <v>0.0002394661268164811</v>
       </c>
       <c r="M41" t="n">
-        <v>5.38206669085448e-07</v>
+        <v>5.369647163646275e-07</v>
       </c>
       <c r="N41" t="n">
-        <v>0.02790528112471837</v>
+        <v>0.0278408875714445</v>
       </c>
       <c r="O41" t="n">
-        <v>4.684849789055078</v>
+        <v>4.674039142743245</v>
       </c>
       <c r="P41" t="n">
-        <v>59.81540056757888</v>
+        <v>59.6773719927786</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.0007296677437238966</v>
+        <v>0.0007279839800478486</v>
       </c>
     </row>
     <row r="42">
@@ -2782,28 +2782,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.1295989176035937</v>
+        <v>0.132115296905352</v>
       </c>
       <c r="C43" t="n">
-        <v>912.851009</v>
+        <v>930.5755349999999</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7962485552007104</v>
+        <v>0.8117090499364042</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.06302768692149614</v>
+        <v>0.06425147466401472</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6848393041604989</v>
+        <v>0.6981366023315464</v>
       </c>
       <c r="H43" t="n">
-        <v>4.5072061648213e-08</v>
+        <v>4.594721095591053e-08</v>
       </c>
       <c r="I43" t="n">
-        <v>1.722629305727358e-07</v>
+        <v>1.75607702897759e-07</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -2815,10 +2815,10 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>7.094544029326855e-07</v>
+        <v>7.232296443320131e-07</v>
       </c>
       <c r="N43" t="n">
-        <v>0.1946599281186508</v>
+        <v>0.198439575534363</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -2892,28 +2892,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.843902101706513e-08</v>
+        <v>2.749105364983112e-08</v>
       </c>
       <c r="C45" t="n">
-        <v>8.999999999998454e-05</v>
+        <v>8.699999999998978e-05</v>
       </c>
       <c r="D45" t="n">
-        <v>7.89012104206875e-08</v>
+        <v>7.627117007333539e-08</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>1.434254488749282e-08</v>
+        <v>1.386446005791048e-08</v>
       </c>
       <c r="G45" t="n">
-        <v>1.570674671674917e-07</v>
+        <v>1.518318849285835e-07</v>
       </c>
       <c r="H45" t="n">
-        <v>4.449489363479639e-15</v>
+        <v>4.301173051363884e-15</v>
       </c>
       <c r="I45" t="n">
-        <v>3.105930922393634e-14</v>
+        <v>3.002399891647343e-14</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -2925,10 +2925,10 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1.042783348665425e-13</v>
+        <v>1.008023903709966e-13</v>
       </c>
       <c r="N45" t="n">
-        <v>4.081564963352139e-08</v>
+        <v>3.945512797907282e-08</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.66453780713223e-07</v>
+        <v>1.065304196564447e-07</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0001249999999999939</v>
+        <v>7.999999999998258e-05</v>
       </c>
       <c r="D46" t="n">
-        <v>4.375448445013785e-05</v>
+        <v>2.80028700480835e-05</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>3.278728444626178e-08</v>
+        <v>2.098386204560399e-08</v>
       </c>
       <c r="G46" t="n">
-        <v>3.622077239241566e-07</v>
+        <v>2.318129433114211e-07</v>
       </c>
       <c r="H46" t="n">
-        <v>3.937195098159559e-14</v>
+        <v>2.519804862821692e-14</v>
       </c>
       <c r="I46" t="n">
-        <v>1.80845123714662e-13</v>
+        <v>1.157408791773641e-13</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -2980,10 +2980,10 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>8.097008222327565e-13</v>
+        <v>5.182085262288767e-13</v>
       </c>
       <c r="N46" t="n">
-        <v>9.29048456763607e-08</v>
+        <v>5.945910123286081e-08</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -3002,52 +3002,52 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1.733591176966165e-07</v>
+        <v>7.44313603153546e-08</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0001839999999999994</v>
+        <v>7.899999999995675e-05</v>
       </c>
       <c r="D47" t="n">
-        <v>0.002520486217364022</v>
+        <v>0.00108216527810679</v>
       </c>
       <c r="E47" t="n">
-        <v>2.635387392568221e-10</v>
+        <v>1.131497847895522e-10</v>
       </c>
       <c r="F47" t="n">
-        <v>8.344844929752786e-08</v>
+        <v>3.58284102962017e-08</v>
       </c>
       <c r="G47" t="n">
-        <v>9.522027716158017e-07</v>
+        <v>4.088261899869967e-07</v>
       </c>
       <c r="H47" t="n">
-        <v>2.045103962393253e-14</v>
+        <v>8.78060940374886e-15</v>
       </c>
       <c r="I47" t="n">
-        <v>1.174613484033828e-12</v>
+        <v>5.043177458620755e-13</v>
       </c>
       <c r="J47" t="n">
-        <v>7.962154774755828e-10</v>
+        <v>3.418533843507435e-10</v>
       </c>
       <c r="K47" t="n">
-        <v>3.955092807782379e-07</v>
+        <v>1.698110498992597e-07</v>
       </c>
       <c r="L47" t="n">
-        <v>2.029216987485361e-13</v>
+        <v>8.712399022350884e-14</v>
       </c>
       <c r="M47" t="n">
-        <v>4.295212791230141e-12</v>
+        <v>1.844140274494545e-12</v>
       </c>
       <c r="N47" t="n">
-        <v>2.261221565775727e-07</v>
+        <v>9.708505635662238e-08</v>
       </c>
       <c r="O47" t="n">
-        <v>6.127382321277156e-06</v>
+        <v>2.630778279242564e-06</v>
       </c>
       <c r="P47" t="n">
-        <v>1.447301398649159e-07</v>
+        <v>6.213957092022897e-08</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.135337713249466e-15</v>
+        <v>9.168026051446522e-16</v>
       </c>
     </row>
     <row r="48">
@@ -3057,52 +3057,52 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1.160617900286351e-07</v>
+        <v>9.888938232031662e-08</v>
       </c>
       <c r="C48" t="n">
-        <v>0.000196</v>
+        <v>0.000167</v>
       </c>
       <c r="D48" t="n">
-        <v>0.004084557555860675</v>
+        <v>0.003480209754228229</v>
       </c>
       <c r="E48" t="n">
-        <v>1.465066971090262e-09</v>
+        <v>1.248296858020785e-09</v>
       </c>
       <c r="F48" t="n">
-        <v>6.631477979130652e-08</v>
+        <v>5.650289910789892e-08</v>
       </c>
       <c r="G48" t="n">
-        <v>5.602228983717538e-07</v>
+        <v>4.773327756534841e-07</v>
       </c>
       <c r="H48" t="n">
-        <v>1.486105750652035e-14</v>
+        <v>1.266222756933112e-14</v>
       </c>
       <c r="I48" t="n">
-        <v>1.201231695970444e-12</v>
+        <v>1.02349843483196e-12</v>
       </c>
       <c r="J48" t="n">
-        <v>2.072642924299099e-07</v>
+        <v>1.765976369173212e-07</v>
       </c>
       <c r="K48" t="n">
-        <v>0.000206623369348384</v>
+        <v>0.0001760515442917353</v>
       </c>
       <c r="L48" t="n">
-        <v>1.539943649612051e-10</v>
+        <v>1.312094844312309e-10</v>
       </c>
       <c r="M48" t="n">
-        <v>1.040506060754831e-12</v>
+        <v>8.865536333982486e-13</v>
       </c>
       <c r="N48" t="n">
-        <v>1.282248470398473e-07</v>
+        <v>1.09252803345176e-07</v>
       </c>
       <c r="O48" t="n">
-        <v>1.15711242341344e-05</v>
+        <v>9.859070138267574e-06</v>
       </c>
       <c r="P48" t="n">
-        <v>3.176122266684666e-05</v>
+        <v>2.706185808858874e-05</v>
       </c>
       <c r="Q48" t="n">
-        <v>6.206309003533467e-13</v>
+        <v>5.288028589745352e-13</v>
       </c>
     </row>
     <row r="49">
@@ -3112,52 +3112,52 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>8.169847282478823</v>
+        <v>2.372614816252951</v>
       </c>
       <c r="C49" t="n">
-        <v>9315.378994000001</v>
+        <v>2705.290008</v>
       </c>
       <c r="D49" t="n">
-        <v>403.9924832846974</v>
+        <v>117.32392520381</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001721993177184792</v>
+        <v>0.0005000860339748612</v>
       </c>
       <c r="F49" t="n">
-        <v>4.23960764697704</v>
+        <v>1.23122936947544</v>
       </c>
       <c r="G49" t="n">
-        <v>46.19883071994081</v>
+        <v>13.41665596305199</v>
       </c>
       <c r="H49" t="n">
-        <v>7.775307005876874e-09</v>
+        <v>2.258035917344782e-09</v>
       </c>
       <c r="I49" t="n">
-        <v>2.714005058244475e-05</v>
+        <v>7.881773538638953e-06</v>
       </c>
       <c r="J49" t="n">
-        <v>1.188653084617642</v>
+        <v>0.3451981196756111</v>
       </c>
       <c r="K49" t="n">
-        <v>565.0746639686089</v>
+        <v>164.1039879529173</v>
       </c>
       <c r="L49" t="n">
-        <v>0.000144732880138801</v>
+        <v>4.203204343277416e-05</v>
       </c>
       <c r="M49" t="n">
-        <v>2.412619261162714e-05</v>
+        <v>7.006515552975076e-06</v>
       </c>
       <c r="N49" t="n">
-        <v>13.70891743540086</v>
+        <v>3.981222597853966</v>
       </c>
       <c r="O49" t="n">
-        <v>22.82663773794904</v>
+        <v>6.6291103162291</v>
       </c>
       <c r="P49" t="n">
-        <v>226.3592076827643</v>
+        <v>65.73723980069974</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.887021344682009e-06</v>
+        <v>8.384232140937584e-07</v>
       </c>
     </row>
     <row r="50">
@@ -3167,52 +3167,52 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>3.029406078700419e-08</v>
+        <v>2.503467523371373e-08</v>
       </c>
       <c r="C50" t="n">
-        <v>0.000143999999999949</v>
+        <v>0.000119</v>
       </c>
       <c r="D50" t="n">
-        <v>0.000313937692861695</v>
+        <v>0.0002594346211844093</v>
       </c>
       <c r="E50" t="n">
-        <v>2.423885657263529e-10</v>
+        <v>2.003072175100432e-10</v>
       </c>
       <c r="F50" t="n">
-        <v>1.804126197505984e-08</v>
+        <v>1.490909843772835e-08</v>
       </c>
       <c r="G50" t="n">
-        <v>1.51777023665996e-07</v>
+        <v>1.254268459462495e-07</v>
       </c>
       <c r="H50" t="n">
-        <v>7.382239204306426e-15</v>
+        <v>6.100600453560945e-15</v>
       </c>
       <c r="I50" t="n">
-        <v>3.900404400089239e-13</v>
+        <v>3.223250858408222e-13</v>
       </c>
       <c r="J50" t="n">
-        <v>8.145420697083865e-08</v>
+        <v>6.73128515939808e-08</v>
       </c>
       <c r="K50" t="n">
-        <v>5.022660276151794e-06</v>
+        <v>4.150670644876912e-06</v>
       </c>
       <c r="L50" t="n">
-        <v>9.466465736209417e-12</v>
+        <v>7.822982101453611e-12</v>
       </c>
       <c r="M50" t="n">
-        <v>1.152450084245093e-13</v>
+        <v>9.523719446195462e-14</v>
       </c>
       <c r="N50" t="n">
-        <v>3.605472801770647e-08</v>
+        <v>2.97952266257541e-08</v>
       </c>
       <c r="O50" t="n">
-        <v>9.721224953355606e-06</v>
+        <v>8.033512287845327e-06</v>
       </c>
       <c r="P50" t="n">
-        <v>1.198275461418465e-05</v>
+        <v>9.902415271447766e-06</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.253164806118103e-13</v>
+        <v>1.861990360612148e-13</v>
       </c>
     </row>
     <row r="51">
@@ -3222,52 +3222,52 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>3.046111393362332e-07</v>
+        <v>2.112346094258988e-07</v>
       </c>
       <c r="C51" t="n">
-        <v>0.001405999999999872</v>
+        <v>0.000974999999999867</v>
       </c>
       <c r="D51" t="n">
-        <v>0.005408547676608735</v>
+        <v>0.003750593161232771</v>
       </c>
       <c r="E51" t="n">
-        <v>1.799721393286385e-09</v>
+        <v>1.248028704448183e-09</v>
       </c>
       <c r="F51" t="n">
-        <v>9.178415533611079e-08</v>
+        <v>6.364832962496724e-08</v>
       </c>
       <c r="G51" t="n">
-        <v>7.197768006984868e-07</v>
+        <v>4.991339834146462e-07</v>
       </c>
       <c r="H51" t="n">
-        <v>2.819213923554595e-14</v>
+        <v>1.955002543005409e-14</v>
       </c>
       <c r="I51" t="n">
-        <v>9.147716480307904e-13</v>
+        <v>6.343544500924466e-13</v>
       </c>
       <c r="J51" t="n">
-        <v>1.839065348414479e-06</v>
+        <v>1.275312030372714e-06</v>
       </c>
       <c r="K51" t="n">
-        <v>0.0003647638858273396</v>
+        <v>0.0002529479293610526</v>
       </c>
       <c r="L51" t="n">
-        <v>8.016830570543726e-11</v>
+        <v>5.559324186543226e-11</v>
       </c>
       <c r="M51" t="n">
-        <v>2.362151042469044e-12</v>
+        <v>1.638049264869995e-12</v>
       </c>
       <c r="N51" t="n">
-        <v>2.89799436609374e-07</v>
+        <v>2.009633361978142e-07</v>
       </c>
       <c r="O51" t="n">
-        <v>1.201470897654892e-05</v>
+        <v>8.33167941119108e-06</v>
       </c>
       <c r="P51" t="n">
-        <v>0.0003566705777458639</v>
+        <v>0.0002473355713386923</v>
       </c>
       <c r="Q51" t="n">
-        <v>5.440348011396184e-12</v>
+        <v>3.772645313734735e-12</v>
       </c>
     </row>
     <row r="52">
@@ -3277,52 +3277,52 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2.894039031038016e-07</v>
+        <v>9.488652560781645e-08</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0002439999999999672</v>
+        <v>7.999999999999993e-05</v>
       </c>
       <c r="D52" t="n">
-        <v>0.003124484526991035</v>
+        <v>0.00102442115639064</v>
       </c>
       <c r="E52" t="n">
-        <v>3.84852171342861e-10</v>
+        <v>1.261810397845614e-10</v>
       </c>
       <c r="F52" t="n">
-        <v>8.258295618815867e-08</v>
+        <v>2.707637907808842e-08</v>
       </c>
       <c r="G52" t="n">
-        <v>1.443594059976547e-06</v>
+        <v>4.733095278612262e-07</v>
       </c>
       <c r="H52" t="n">
-        <v>2.804643006640807e-14</v>
+        <v>9.195550841446494e-15</v>
       </c>
       <c r="I52" t="n">
-        <v>1.171872168573967e-12</v>
+        <v>3.842203831390568e-13</v>
       </c>
       <c r="J52" t="n">
-        <v>1.167833067648027e-08</v>
+        <v>3.828960877535025e-09</v>
       </c>
       <c r="K52" t="n">
-        <v>2.618612345763702e-06</v>
+        <v>8.585614248406724e-07</v>
       </c>
       <c r="L52" t="n">
-        <v>2.731358867881992e-12</v>
+        <v>8.955274976663462e-13</v>
       </c>
       <c r="M52" t="n">
-        <v>3.999468563323787e-12</v>
+        <v>1.311301168303056e-12</v>
       </c>
       <c r="N52" t="n">
-        <v>2.124886188128055e-07</v>
+        <v>6.966839961076519e-08</v>
       </c>
       <c r="O52" t="n">
-        <v>6.560157295677554e-06</v>
+        <v>2.150871244484731e-06</v>
       </c>
       <c r="P52" t="n">
-        <v>4.149743087331001e-06</v>
+        <v>1.360571504043133e-06</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.703559398621339e-14</v>
+        <v>8.864129175808851e-15</v>
       </c>
     </row>
     <row r="53">
@@ -3387,52 +3387,52 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.009745193564040088</v>
+        <v>0.0167478263894571</v>
       </c>
       <c r="C54" t="n">
-        <v>308.632506</v>
+        <v>530.4074869999999</v>
       </c>
       <c r="D54" t="n">
-        <v>52.32394799056762</v>
+        <v>89.92252346742657</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0001706300954872165</v>
+        <v>0.0002932402724745543</v>
       </c>
       <c r="F54" t="n">
-        <v>0.001231276533236326</v>
+        <v>0.002116038586667704</v>
       </c>
       <c r="G54" t="n">
-        <v>0.01285083299917323</v>
+        <v>0.02208509442277654</v>
       </c>
       <c r="H54" t="n">
-        <v>6.871188096375337e-09</v>
+        <v>1.180863823495881e-08</v>
       </c>
       <c r="I54" t="n">
-        <v>6.736311914604232e-08</v>
+        <v>1.157684367269269e-07</v>
       </c>
       <c r="J54" t="n">
-        <v>0.08489438212023893</v>
+        <v>0.1458971916613788</v>
       </c>
       <c r="K54" t="n">
-        <v>6.506235883213049</v>
+        <v>11.18144122072566</v>
       </c>
       <c r="L54" t="n">
-        <v>6.061186049793879e-05</v>
+        <v>0.0001041659060018334</v>
       </c>
       <c r="M54" t="n">
-        <v>1.359124604105299e-07</v>
+        <v>2.335754827404218e-07</v>
       </c>
       <c r="N54" t="n">
-        <v>0.007046875547924228</v>
+        <v>0.01211056994293478</v>
       </c>
       <c r="O54" t="n">
-        <v>1.18305754658558</v>
+        <v>2.033170738861975</v>
       </c>
       <c r="P54" t="n">
-        <v>15.10508644457238</v>
+        <v>25.95919349461978</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.0001842618161908541</v>
+        <v>0.0003166673794102778</v>
       </c>
     </row>
     <row r="55">
@@ -3607,52 +3607,52 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>7.646783877821041e-08</v>
+        <v>2.785614126920188e-08</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0001399999999999786</v>
+        <v>5.099999999998609e-05</v>
       </c>
       <c r="D58" t="n">
-        <v>0.003387188305107878</v>
+        <v>0.001233904311146293</v>
       </c>
       <c r="E58" t="n">
-        <v>1.211108179291478e-09</v>
+        <v>4.41189408170414e-10</v>
       </c>
       <c r="F58" t="n">
-        <v>4.473045602674871e-08</v>
+        <v>1.629466612402793e-08</v>
       </c>
       <c r="G58" t="n">
-        <v>3.52708639962869e-07</v>
+        <v>1.284867188436011e-07</v>
       </c>
       <c r="H58" t="n">
-        <v>1.230849650786948e-14</v>
+        <v>4.483809442151916e-15</v>
       </c>
       <c r="I58" t="n">
-        <v>9.306339754688807e-13</v>
+        <v>3.390166624921944e-13</v>
       </c>
       <c r="J58" t="n">
-        <v>1.690454556215729e-07</v>
+        <v>6.158084454785129e-08</v>
       </c>
       <c r="K58" t="n">
-        <v>0.0001700255489983328</v>
+        <v>6.193787856367095e-05</v>
       </c>
       <c r="L58" t="n">
-        <v>1.27388475278831e-10</v>
+        <v>4.640580170871143e-11</v>
       </c>
       <c r="M58" t="n">
-        <v>8.046174966451432e-13</v>
+        <v>2.931106594921241e-13</v>
       </c>
       <c r="N58" t="n">
-        <v>7.312878848764705e-08</v>
+        <v>2.663977294906823e-08</v>
       </c>
       <c r="O58" t="n">
-        <v>9.542985945952476e-06</v>
+        <v>3.476373451739413e-06</v>
       </c>
       <c r="P58" t="n">
-        <v>2.579738239003402e-05</v>
+        <v>9.397617870654122e-06</v>
       </c>
       <c r="Q58" t="n">
-        <v>5.078184507987728e-13</v>
+        <v>1.849910070766736e-13</v>
       </c>
     </row>
     <row r="59">
@@ -3775,7 +3775,7 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0001589999999999905</v>
+        <v>0.0001289999999999759</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -3937,52 +3937,52 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.007139256652239394</v>
+        <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6442819999999999</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>1978.005399249306</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0008515962783016114</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.01718608009388914</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>0.01392411797113643</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>3.520295998252103e-09</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>9.862977032639953e-08</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>0.05291648926401035</v>
+        <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>9.944298453135568</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>1.858280215611455e-05</v>
+        <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>1.066754960435743e-07</v>
+        <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>0.002311703905292389</v>
+        <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>5.02329200853538</v>
+        <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>5.621440378051546</v>
+        <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.720399797318532e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -4102,52 +4102,52 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>6.053143209133506e-07</v>
+        <v>1.614171522435639e-06</v>
       </c>
       <c r="C67" t="n">
-        <v>2.999999999999911e-06</v>
+        <v>7.999999999999947e-06</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0003998022069454106</v>
+        <v>0.00106613921852112</v>
       </c>
       <c r="E67" t="n">
-        <v>2.283794383720097e-09</v>
+        <v>6.090118356587067e-09</v>
       </c>
       <c r="F67" t="n">
-        <v>2.037545335407822e-07</v>
+        <v>5.433454227754318e-07</v>
       </c>
       <c r="G67" t="n">
-        <v>1.560625281368611e-06</v>
+        <v>4.161667416983059e-06</v>
       </c>
       <c r="H67" t="n">
-        <v>3.395677483165638e-14</v>
+        <v>9.055139955108578e-14</v>
       </c>
       <c r="I67" t="n">
-        <v>1.42800253397927e-13</v>
+        <v>3.808006757278142e-13</v>
       </c>
       <c r="J67" t="n">
-        <v>7.257331099623687e-07</v>
+        <v>1.935288293233028e-06</v>
       </c>
       <c r="K67" t="n">
-        <v>3.023187783122776e-05</v>
+        <v>8.06183408832759e-05</v>
       </c>
       <c r="L67" t="n">
-        <v>4.066877564550193e-10</v>
+        <v>1.084500683880077e-09</v>
       </c>
       <c r="M67" t="n">
-        <v>1.167409576241039e-12</v>
+        <v>3.113092203309511e-12</v>
       </c>
       <c r="N67" t="n">
-        <v>3.914460300055269e-07</v>
+        <v>1.043856080014763e-06</v>
       </c>
       <c r="O67" t="n">
-        <v>0.001190787998930933</v>
+        <v>0.003175434663815895</v>
       </c>
       <c r="P67" t="n">
-        <v>3.901237096011211e-05</v>
+        <v>0.000104032989226968</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.806455085956575e-13</v>
+        <v>7.483880229217707e-13</v>
       </c>
     </row>
     <row r="68">
@@ -4157,52 +4157,52 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>6.607888596793464e-05</v>
+        <v>6.599683437112015e-05</v>
       </c>
       <c r="C68" t="n">
-        <v>0.009664000000000001</v>
+        <v>0.009652000000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3474302786754444</v>
+        <v>0.346998866905566</v>
       </c>
       <c r="E68" t="n">
-        <v>1.496262605853824e-06</v>
+        <v>1.494404663876357e-06</v>
       </c>
       <c r="F68" t="n">
-        <v>3.772677683867882e-05</v>
+        <v>3.767993067538576e-05</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0002055330513604304</v>
+        <v>0.0002052778364787743</v>
       </c>
       <c r="H68" t="n">
-        <v>6.943656336800421e-12</v>
+        <v>6.935034246978235e-12</v>
       </c>
       <c r="I68" t="n">
-        <v>2.175580704742382e-10</v>
+        <v>2.1728792386355e-10</v>
       </c>
       <c r="J68" t="n">
-        <v>0.001072753591433257</v>
+        <v>0.001071421529854491</v>
       </c>
       <c r="K68" t="n">
-        <v>-8.912368893659639</v>
+        <v>-8.901302210430758</v>
       </c>
       <c r="L68" t="n">
-        <v>1.306440527210909e-07</v>
+        <v>1.304818291456922e-07</v>
       </c>
       <c r="M68" t="n">
-        <v>5.984453261092893e-10</v>
+        <v>5.97702223469253e-10</v>
       </c>
       <c r="N68" t="n">
-        <v>0.0001081451950478842</v>
+        <v>0.0001080109087957552</v>
       </c>
       <c r="O68" t="n">
-        <v>0.0206066536889646</v>
+        <v>0.02058106595673493</v>
       </c>
       <c r="P68" t="n">
-        <v>0.2045353463771636</v>
+        <v>0.2042813703675893</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.60833874585535e-09</v>
+        <v>2.605099914631193e-09</v>
       </c>
     </row>
     <row r="69">
@@ -4212,52 +4212,52 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>3.333436377700417e-08</v>
+        <v>2.40748182833919e-08</v>
       </c>
       <c r="C69" t="n">
-        <v>1.8e-05</v>
+        <v>1.3e-05</v>
       </c>
       <c r="D69" t="n">
-        <v>1.95747165835164e-05</v>
+        <v>1.41372953103174e-05</v>
       </c>
       <c r="E69" t="n">
-        <v>1.23712172480414e-10</v>
+        <v>8.934768012474342e-11</v>
       </c>
       <c r="F69" t="n">
-        <v>5.144032407497247e-09</v>
+        <v>3.715134516525789e-09</v>
       </c>
       <c r="G69" t="n">
-        <v>1.406235117747568e-07</v>
+        <v>1.015614251706577e-07</v>
       </c>
       <c r="H69" t="n">
-        <v>3.434264149887178e-15</v>
+        <v>2.480301886029628e-15</v>
       </c>
       <c r="I69" t="n">
-        <v>1.120605629265327e-14</v>
+        <v>8.093262878027363e-15</v>
       </c>
       <c r="J69" t="n">
-        <v>5.072138997980445e-08</v>
+        <v>3.663211498541432e-08</v>
       </c>
       <c r="K69" t="n">
-        <v>3.477967691249958e-06</v>
+        <v>2.511865554791636e-06</v>
       </c>
       <c r="L69" t="n">
-        <v>1.275512951491267e-11</v>
+        <v>9.212037982992483e-12</v>
       </c>
       <c r="M69" t="n">
-        <v>2.464366014594034e-13</v>
+        <v>1.779819899429024e-13</v>
       </c>
       <c r="N69" t="n">
-        <v>2.634126216234532e-09</v>
+        <v>1.902424489502718e-09</v>
       </c>
       <c r="O69" t="n">
-        <v>6.38485537155147e-07</v>
+        <v>4.611284435009394e-07</v>
       </c>
       <c r="P69" t="n">
-        <v>2.226313296013634e-05</v>
+        <v>1.607892936009847e-05</v>
       </c>
       <c r="Q69" t="n">
-        <v>4.960490181118167e-14</v>
+        <v>3.582576241918676e-14</v>
       </c>
     </row>
     <row r="70">
@@ -4267,52 +4267,52 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>82.96780315236931</v>
+        <v>7.829253882768834</v>
       </c>
       <c r="C70" t="n">
-        <v>9553.719552</v>
+        <v>901.5364159999999</v>
       </c>
       <c r="D70" t="n">
-        <v>212782.9258087357</v>
+        <v>20079.25345468645</v>
       </c>
       <c r="E70" t="n">
-        <v>0.04876684568218864</v>
+        <v>0.004601881710746015</v>
       </c>
       <c r="F70" t="n">
-        <v>8.045557285454167</v>
+        <v>0.7592187357365541</v>
       </c>
       <c r="G70" t="n">
-        <v>88.09124203267909</v>
+        <v>8.312727015992907</v>
       </c>
       <c r="H70" t="n">
-        <v>1.482394245697314e-06</v>
+        <v>1.398860818648594e-07</v>
       </c>
       <c r="I70" t="n">
-        <v>9.141821654015648e-05</v>
+        <v>8.626676850637846e-06</v>
       </c>
       <c r="J70" t="n">
-        <v>1.834920093614219</v>
+        <v>0.1731521713443057</v>
       </c>
       <c r="K70" t="n">
-        <v>317.1604516927202</v>
+        <v>29.9288350845654</v>
       </c>
       <c r="L70" t="n">
-        <v>7.38491979900348e-05</v>
+        <v>6.968777021141762e-06</v>
       </c>
       <c r="M70" t="n">
-        <v>0.001052918222773348</v>
+        <v>9.935859177501773e-05</v>
       </c>
       <c r="N70" t="n">
-        <v>26.25883562334055</v>
+        <v>2.477914117883409</v>
       </c>
       <c r="O70" t="n">
-        <v>7.631459825815425</v>
+        <v>0.7201424432406891</v>
       </c>
       <c r="P70" t="n">
-        <v>77.14722073196394</v>
+        <v>7.279994823429338</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.291052940177033e-06</v>
+        <v>1.21830166169134e-07</v>
       </c>
     </row>
     <row r="71">
@@ -4322,28 +4322,28 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.6566878759531127</v>
+        <v>0.9367502545487932</v>
       </c>
       <c r="C71" t="n">
-        <v>2078.197727</v>
+        <v>2964.501586</v>
       </c>
       <c r="D71" t="n">
-        <v>1.821914623931663</v>
+        <v>2.598919593660978</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.3311849353843132</v>
+        <v>0.4724277451806219</v>
       </c>
       <c r="G71" t="n">
-        <v>3.626858369479827</v>
+        <v>5.173630616967911</v>
       </c>
       <c r="H71" t="n">
-        <v>1.027435409055073e-07</v>
+        <v>1.465613141658643e-07</v>
       </c>
       <c r="I71" t="n">
-        <v>7.17193175904286e-07</v>
+        <v>1.023059682827106e-06</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
@@ -4355,10 +4355,10 @@
         <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>2.40789998327812e-06</v>
+        <v>3.434814323303973e-06</v>
       </c>
       <c r="N71" t="n">
-        <v>0.9424776699380791</v>
+        <v>1.344422867469058</v>
       </c>
       <c r="O71" t="n">
         <v>0</v>
@@ -4377,28 +4377,28 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>4.56749174277106e-07</v>
+        <v>2.71652570123979e-07</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0003429999999999999</v>
+        <v>0.0002039999999999893</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0001200623053311841</v>
+        <v>7.140731862262473e-05</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>8.996830852054667e-08</v>
+        <v>5.350884821629904e-08</v>
       </c>
       <c r="G72" t="n">
-        <v>9.938979944479339e-07</v>
+        <v>5.911230054442217e-07</v>
       </c>
       <c r="H72" t="n">
-        <v>1.080366334935035e-13</v>
+        <v>6.425502400196379e-14</v>
       </c>
       <c r="I72" t="n">
-        <v>4.962390194730566e-13</v>
+        <v>2.951392419023274e-13</v>
       </c>
       <c r="J72" t="n">
         <v>0</v>
@@ -4410,10 +4410,10 @@
         <v>0</v>
       </c>
       <c r="M72" t="n">
-        <v>2.221819056206792e-12</v>
+        <v>1.321431741883854e-12</v>
       </c>
       <c r="N72" t="n">
-        <v>2.549308965359461e-07</v>
+        <v>1.516207081438202e-07</v>
       </c>
       <c r="O72" t="n">
         <v>0</v>
@@ -4432,52 +4432,52 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1.030070371318467</v>
+        <v>1.030070937438728</v>
       </c>
       <c r="C73" t="n">
-        <v>4896.343693</v>
+        <v>4896.346384</v>
       </c>
       <c r="D73" t="n">
-        <v>10674.63085026997</v>
+        <v>10674.63671698061</v>
       </c>
       <c r="E73" t="n">
-        <v>0.008241789757291434</v>
+        <v>0.008241794286927756</v>
       </c>
       <c r="F73" t="n">
-        <v>0.6134459672595576</v>
+        <v>0.6134463044056409</v>
       </c>
       <c r="G73" t="n">
-        <v>5.160781059510933</v>
+        <v>5.160783895844063</v>
       </c>
       <c r="H73" t="n">
-        <v>2.51013752557194e-07</v>
+        <v>2.510138905127891e-07</v>
       </c>
       <c r="I73" t="n">
-        <v>1.326230589203693e-05</v>
+        <v>1.326231318091765e-05</v>
       </c>
       <c r="J73" t="n">
-        <v>2.769637448403679</v>
+        <v>2.769638970579172</v>
       </c>
       <c r="K73" t="n">
-        <v>170.7824372585153</v>
+        <v>170.7825311194793</v>
       </c>
       <c r="L73" t="n">
-        <v>0.0003218824291840716</v>
+        <v>0.0003218826060886501</v>
       </c>
       <c r="M73" t="n">
-        <v>3.918605348258877e-06</v>
+        <v>3.918607501899972e-06</v>
       </c>
       <c r="N73" t="n">
-        <v>1.225946806474931</v>
+        <v>1.225947480247661</v>
       </c>
       <c r="O73" t="n">
-        <v>330.5448506153737</v>
+        <v>330.545032280765</v>
       </c>
       <c r="P73" t="n">
-        <v>407.4422568052125</v>
+        <v>407.4424807329394</v>
       </c>
       <c r="Q73" t="n">
-        <v>7.661298116479067e-06</v>
+        <v>7.6613023270808e-06</v>
       </c>
     </row>
     <row r="74">
@@ -4487,52 +4487,52 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>9.478221326238736e-07</v>
+        <v>1.271928309186833e-07</v>
       </c>
       <c r="C74" t="n">
-        <v>0.001005999999999977</v>
+        <v>0.0001349999999999679</v>
       </c>
       <c r="D74" t="n">
-        <v>0.01378048442754433</v>
+        <v>0.001849269779043822</v>
       </c>
       <c r="E74" t="n">
-        <v>1.44086941137151e-09</v>
+        <v>1.933572271720795e-10</v>
       </c>
       <c r="F74" t="n">
-        <v>4.562453260506053e-07</v>
+        <v>6.122576443023706e-08</v>
       </c>
       <c r="G74" t="n">
-        <v>5.206065153508031e-06</v>
+        <v>6.986270335222993e-07</v>
       </c>
       <c r="H74" t="n">
-        <v>1.118138362047593e-13</v>
+        <v>1.50048388545122e-14</v>
       </c>
       <c r="I74" t="n">
-        <v>6.422071548576128e-12</v>
+        <v>8.618088062202694e-13</v>
       </c>
       <c r="J74" t="n">
-        <v>4.353221577937069e-09</v>
+        <v>5.841798340172743e-10</v>
       </c>
       <c r="K74" t="n">
-        <v>2.162404002515759e-06</v>
+        <v>2.901834397013566e-07</v>
       </c>
       <c r="L74" t="n">
-        <v>1.109452331201214e-12</v>
+        <v>1.488827681035106e-13</v>
       </c>
       <c r="M74" t="n">
-        <v>2.348360906509476e-11</v>
+        <v>3.151378950086592e-12</v>
       </c>
       <c r="N74" t="n">
-        <v>1.236298312592574e-06</v>
+        <v>1.65904843141115e-07</v>
       </c>
       <c r="O74" t="n">
-        <v>3.350079682176466e-05</v>
+        <v>4.495633768327294e-06</v>
       </c>
       <c r="P74" t="n">
-        <v>7.912963081744702e-07</v>
+        <v>1.061878743573862e-07</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.167472684526587e-14</v>
+        <v>1.566687996133752e-15</v>
       </c>
     </row>
     <row r="75">
@@ -4542,52 +4542,52 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>4.243808346853776</v>
+        <v>15.38358348691746</v>
       </c>
       <c r="C75" t="n">
-        <v>4838.852154999999</v>
+        <v>17540.586196</v>
       </c>
       <c r="D75" t="n">
-        <v>209.8529646088556</v>
+        <v>760.7060303349505</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0008944853882684578</v>
+        <v>0.003242462788984594</v>
       </c>
       <c r="F75" t="n">
-        <v>2.202254423802064</v>
+        <v>7.983057202172864</v>
       </c>
       <c r="G75" t="n">
-        <v>23.99787617139925</v>
+        <v>86.99104705449781</v>
       </c>
       <c r="H75" t="n">
-        <v>4.038865309227578e-09</v>
+        <v>1.464067568531458e-08</v>
       </c>
       <c r="I75" t="n">
-        <v>1.409783674204332e-05</v>
+        <v>5.110392147348977e-05</v>
       </c>
       <c r="J75" t="n">
-        <v>0.6174431060458336</v>
+        <v>2.238198993439368</v>
       </c>
       <c r="K75" t="n">
-        <v>293.5267322179338</v>
+        <v>1064.019065343582</v>
       </c>
       <c r="L75" t="n">
-        <v>7.518116111111323e-05</v>
+        <v>0.0002725277802551182</v>
       </c>
       <c r="M75" t="n">
-        <v>1.253229516328974e-05</v>
+        <v>4.542891506165424e-05</v>
       </c>
       <c r="N75" t="n">
-        <v>7.121065575295747</v>
+        <v>25.8134905820125</v>
       </c>
       <c r="O75" t="n">
-        <v>11.8572443784437</v>
+        <v>42.98189124299214</v>
       </c>
       <c r="P75" t="n">
-        <v>117.5817688797554</v>
+        <v>426.2277676705542</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.499656585549925e-06</v>
+        <v>5.436176754451285e-06</v>
       </c>
     </row>
     <row r="76">
@@ -4597,52 +4597,52 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>4.165433358214163e-08</v>
+        <v>3.134593789766828e-08</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0001979999999999815</v>
+        <v>0.0001489999999999673</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0004316643276849432</v>
+        <v>0.0003248383071972143</v>
       </c>
       <c r="E76" t="n">
-        <v>3.332842778738222e-10</v>
+        <v>2.508048353696629e-10</v>
       </c>
       <c r="F76" t="n">
-        <v>2.480673521571376e-08</v>
+        <v>1.866769468252972e-08</v>
       </c>
       <c r="G76" t="n">
-        <v>2.08693407540799e-07</v>
+        <v>1.570470592099754e-07</v>
       </c>
       <c r="H76" t="n">
-        <v>1.015057890592399e-14</v>
+        <v>7.638566954456986e-15</v>
       </c>
       <c r="I76" t="n">
-        <v>5.363056050124104e-13</v>
+        <v>4.035835108426216e-13</v>
       </c>
       <c r="J76" t="n">
-        <v>1.119995345849324e-07</v>
+        <v>8.428247804622635e-08</v>
       </c>
       <c r="K76" t="n">
-        <v>6.906157879710519e-06</v>
+        <v>5.197058202407765e-06</v>
       </c>
       <c r="L76" t="n">
-        <v>1.301639038729135e-11</v>
+        <v>9.795162463162454e-12</v>
       </c>
       <c r="M76" t="n">
-        <v>1.584618865837416e-13</v>
+        <v>1.192465712170431e-13</v>
       </c>
       <c r="N76" t="n">
-        <v>4.957525102435933e-08</v>
+        <v>3.730662829610408e-08</v>
       </c>
       <c r="O76" t="n">
-        <v>1.336668431086745e-05</v>
+        <v>1.005876748645959e-05</v>
       </c>
       <c r="P76" t="n">
-        <v>1.647628759450819e-05</v>
+        <v>1.23988224827344e-05</v>
       </c>
       <c r="Q76" t="n">
-        <v>3.0981016084132e-13</v>
+        <v>2.331399695219741e-13</v>
       </c>
     </row>
     <row r="77">
@@ -4652,52 +4652,52 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>2.113151768339908e-06</v>
+        <v>1.338370382039632e-07</v>
       </c>
       <c r="C77" t="n">
-        <v>0.001720999999999974</v>
+        <v>0.0001089999999999844</v>
       </c>
       <c r="D77" t="n">
-        <v>0.02777898300832542</v>
+        <v>0.00175938939448407</v>
       </c>
       <c r="E77" t="n">
-        <v>2.98156190354499e-09</v>
+        <v>1.888380287544233e-10</v>
       </c>
       <c r="F77" t="n">
-        <v>1.034442642559519e-06</v>
+        <v>6.551670426436559e-08</v>
       </c>
       <c r="G77" t="n">
-        <v>1.170344085064674e-05</v>
+        <v>7.412405884487697e-07</v>
       </c>
       <c r="H77" t="n">
-        <v>2.099792732962869e-13</v>
+        <v>1.329909400888574e-14</v>
       </c>
       <c r="I77" t="n">
-        <v>1.31199554034261e-11</v>
+        <v>8.309559203795834e-13</v>
       </c>
       <c r="J77" t="n">
-        <v>3.628649029926647e-08</v>
+        <v>2.298214667414027e-09</v>
       </c>
       <c r="K77" t="n">
-        <v>1.354049260631066e-05</v>
+        <v>8.575907577499554e-07</v>
       </c>
       <c r="L77" t="n">
-        <v>9.243830501190322e-12</v>
+        <v>5.854605023995449e-13</v>
       </c>
       <c r="M77" t="n">
-        <v>1.969789354908573e-10</v>
+        <v>1.247571410139495e-11</v>
       </c>
       <c r="N77" t="n">
-        <v>2.79868711236513e-06</v>
+        <v>1.772556044437887e-07</v>
       </c>
       <c r="O77" t="n">
-        <v>4.474318567543843e-05</v>
+        <v>2.833821753993124e-06</v>
       </c>
       <c r="P77" t="n">
-        <v>1.142936593952468e-05</v>
+        <v>7.238819799000761e-07</v>
       </c>
       <c r="Q77" t="n">
-        <v>9.177139086298505e-14</v>
+        <v>5.812365836179021e-15</v>
       </c>
     </row>
     <row r="78">
@@ -5040,7 +5040,7 @@
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>0.000263999999999986</v>
+        <v>0.0001689999999999934</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
@@ -5257,52 +5257,52 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>2.397589026546859e-08</v>
+        <v>6.44682143572583</v>
       </c>
       <c r="C88" t="n">
-        <v>6.8e-05</v>
+        <v>18284.362031</v>
       </c>
       <c r="D88" t="n">
-        <v>0.001077484371191545</v>
+        <v>289722.2694942736</v>
       </c>
       <c r="E88" t="n">
-        <v>5.886855470048287e-10</v>
+        <v>0.158290289174317</v>
       </c>
       <c r="F88" t="n">
-        <v>3.763987308125058e-09</v>
+        <v>1.012089803262467</v>
       </c>
       <c r="G88" t="n">
-        <v>3.766066089075286e-08</v>
+        <v>10.12648761843012</v>
       </c>
       <c r="H88" t="n">
-        <v>1.681836658733322e-15</v>
+        <v>4.522251521365803e-07</v>
       </c>
       <c r="I88" t="n">
-        <v>4.339206643019327e-14</v>
+        <v>1.166759193945376e-05</v>
       </c>
       <c r="J88" t="n">
-        <v>6.581037559988473e-07</v>
+        <v>176.9559901271149</v>
       </c>
       <c r="K88" t="n">
-        <v>2.698513493646169e-05</v>
+        <v>7255.970244612527</v>
       </c>
       <c r="L88" t="n">
-        <v>5.422689598370036e-11</v>
+        <v>0.01458094408799055</v>
       </c>
       <c r="M88" t="n">
-        <v>1.737180673133054e-13</v>
+        <v>4.671064756003095e-05</v>
       </c>
       <c r="N88" t="n">
-        <v>9.040601938480813e-09</v>
+        <v>2.430906453255053</v>
       </c>
       <c r="O88" t="n">
-        <v>8.699211122534456e-06</v>
+        <v>2339.110669831205</v>
       </c>
       <c r="P88" t="n">
-        <v>2.246988931250669e-05</v>
+        <v>6041.876338034855</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.826969898642243e-13</v>
+        <v>4.912496918605023e-05</v>
       </c>
     </row>
     <row r="89">
@@ -5312,52 +5312,52 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.0003417504013576359</v>
+        <v>7.763871062118988e-08</v>
       </c>
       <c r="C89" t="n">
-        <v>2.944807</v>
+        <v>0.0006689999999999881</v>
       </c>
       <c r="D89" t="n">
-        <v>5.110929128500429</v>
+        <v>0.001161098702552231</v>
       </c>
       <c r="E89" t="n">
-        <v>6.136991838517652e-06</v>
+        <v>1.394199191990591e-09</v>
       </c>
       <c r="F89" t="n">
-        <v>7.789988642817711e-05</v>
+        <v>1.769726301942693e-08</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0008567061035806438</v>
+        <v>1.946261277209136e-07</v>
       </c>
       <c r="H89" t="n">
-        <v>4.793225503305529e-11</v>
+        <v>1.088922928297624e-14</v>
       </c>
       <c r="I89" t="n">
-        <v>9.654056019176372e-10</v>
+        <v>2.19320433455533e-13</v>
       </c>
       <c r="J89" t="n">
-        <v>0.0005511550787103543</v>
+        <v>1.252111760319846e-07</v>
       </c>
       <c r="K89" t="n">
-        <v>0.04980652590820099</v>
+        <v>1.131502534209742e-05</v>
       </c>
       <c r="L89" t="n">
-        <v>1.788619187111975e-06</v>
+        <v>4.063377451146679e-10</v>
       </c>
       <c r="M89" t="n">
-        <v>1.368338843808837e-09</v>
+        <v>3.108586357299801e-13</v>
       </c>
       <c r="N89" t="n">
-        <v>0.0002325765049021068</v>
+        <v>5.283663132405848e-08</v>
       </c>
       <c r="O89" t="n">
-        <v>0.138788657820791</v>
+        <v>3.152994817049387e-05</v>
       </c>
       <c r="P89" t="n">
-        <v>0.04848046919287587</v>
+        <v>1.101377234230745e-05</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.140683737047098e-09</v>
+        <v>2.591400455393155e-13</v>
       </c>
     </row>
     <row r="90">
@@ -5422,52 +5422,52 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1.853047696224867e-08</v>
+        <v>9.265238481124334e-09</v>
       </c>
       <c r="C91" t="n">
-        <v>1.999999999999925e-06</v>
+        <v>9.999999999999623e-07</v>
       </c>
       <c r="D91" t="n">
-        <v>0.001309734222791557</v>
+        <v>0.0006548671113957783</v>
       </c>
       <c r="E91" t="n">
-        <v>3.359297285473923e-09</v>
+        <v>1.679648642736961e-09</v>
       </c>
       <c r="F91" t="n">
-        <v>6.791380540393821e-08</v>
+        <v>3.39569027019691e-08</v>
       </c>
       <c r="G91" t="n">
-        <v>5.32072634481959e-08</v>
+        <v>2.660363172409795e-08</v>
       </c>
       <c r="H91" t="n">
-        <v>1.647085566383704e-14</v>
+        <v>8.235427831918519e-15</v>
       </c>
       <c r="I91" t="n">
-        <v>3.853559000741311e-13</v>
+        <v>1.926779500370655e-13</v>
       </c>
       <c r="J91" t="n">
-        <v>1.915652432144512e-07</v>
+        <v>9.578262160722558e-08</v>
       </c>
       <c r="K91" t="n">
-        <v>3.365257006848604e-05</v>
+        <v>1.682628503424302e-05</v>
       </c>
       <c r="L91" t="n">
-        <v>4.826588961654469e-11</v>
+        <v>2.413294480827234e-11</v>
       </c>
       <c r="M91" t="n">
-        <v>3.500236657377345e-13</v>
+        <v>1.750118328688673e-13</v>
       </c>
       <c r="N91" t="n">
-        <v>8.209364477345127e-09</v>
+        <v>4.104682238672564e-09</v>
       </c>
       <c r="O91" t="n">
-        <v>1.500143714327396e-05</v>
+        <v>7.500718571636979e-06</v>
       </c>
       <c r="P91" t="n">
-        <v>1.603250870989282e-05</v>
+        <v>8.016254354946409e-06</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.471031778410765e-13</v>
+        <v>7.355158892053824e-14</v>
       </c>
     </row>
     <row r="92">
@@ -5642,52 +5642,52 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>7.843322668976518</v>
+        <v>10.84065782107682</v>
       </c>
       <c r="C95" t="n">
-        <v>3930.810747</v>
+        <v>5432.974782</v>
       </c>
       <c r="D95" t="n">
-        <v>12958.911903916</v>
+        <v>17911.17560922229</v>
       </c>
       <c r="E95" t="n">
-        <v>1.15181278197159e-05</v>
+        <v>1.591979416158066e-05</v>
       </c>
       <c r="F95" t="n">
-        <v>3.924235541706385</v>
+        <v>5.423886854128138</v>
       </c>
       <c r="G95" t="n">
-        <v>43.80703961341447</v>
+        <v>60.547952270508</v>
       </c>
       <c r="H95" t="n">
-        <v>2.724051124127793e-07</v>
+        <v>3.76505052387989e-07</v>
       </c>
       <c r="I95" t="n">
-        <v>8.641179517690765e-05</v>
+        <v>0.0001194341662014105</v>
       </c>
       <c r="J95" t="n">
-        <v>0.00573066750999954</v>
+        <v>0.007920648962714927</v>
       </c>
       <c r="K95" t="n">
-        <v>0.4391936622556968</v>
+        <v>0.6070320463203482</v>
       </c>
       <c r="L95" t="n">
-        <v>4.091512429929735e-06</v>
+        <v>5.655088805537907e-06</v>
       </c>
       <c r="M95" t="n">
-        <v>0.0005228627521821273</v>
+        <v>0.0007226753791748025</v>
       </c>
       <c r="N95" t="n">
-        <v>10.32322174477095</v>
+        <v>14.26825329892552</v>
       </c>
       <c r="O95" t="n">
-        <v>0.07986051933419398</v>
+        <v>0.1103793124487709</v>
       </c>
       <c r="P95" t="n">
-        <v>1.019646129246153</v>
+        <v>1.409305118794177</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.24383166118444e-05</v>
+        <v>1.719163420275506e-05</v>
       </c>
     </row>
     <row r="96">
@@ -5697,52 +5697,52 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>5.140079483437155e-08</v>
+        <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>2.999999999999985e-06</v>
+        <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>0.004246405891129511</v>
+        <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>3.56128418679873e-12</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>5.570632481317853e-10</v>
+        <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>9.819468378897581e-09</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>6.756218841402125e-14</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>2.719302037275741e-11</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>1.771862224712315e-09</v>
+        <v>0</v>
       </c>
       <c r="K96" t="n">
-        <v>1.357940690375161e-07</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>1.265052684331004e-12</v>
+        <v>0</v>
       </c>
       <c r="M96" t="n">
-        <v>1.598384805604592e-10</v>
+        <v>0</v>
       </c>
       <c r="N96" t="n">
-        <v>3.316627091425527e-09</v>
+        <v>0</v>
       </c>
       <c r="O96" t="n">
-        <v>2.469203407932092e-08</v>
+        <v>0</v>
       </c>
       <c r="P96" t="n">
-        <v>3.152638773463815e-07</v>
+        <v>0</v>
       </c>
       <c r="Q96" t="n">
-        <v>3.845796899764743e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -5807,52 +5807,52 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>3.437868955901177</v>
+        <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>1726.247236</v>
+        <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>5094.481608491366</v>
+        <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>4.527758362053859e-06</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>1.723738885770323</v>
+        <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>19.24182951699443</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>1.099721965876607e-07</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>3.404600305275106e-05</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>0.002252716599839816</v>
+        <v>0</v>
       </c>
       <c r="K98" t="n">
-        <v>0.1726463543350693</v>
+        <v>0</v>
       </c>
       <c r="L98" t="n">
-        <v>1.608367254472663e-06</v>
+        <v>0</v>
       </c>
       <c r="M98" t="n">
-        <v>0.000207031128282395</v>
+        <v>0</v>
       </c>
       <c r="N98" t="n">
-        <v>4.534219288157259</v>
+        <v>0</v>
       </c>
       <c r="O98" t="n">
-        <v>0.0313930475397589</v>
+        <v>0</v>
       </c>
       <c r="P98" t="n">
-        <v>0.4008213279355666</v>
+        <v>0</v>
       </c>
       <c r="Q98" t="n">
-        <v>4.889483163466148e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -5862,52 +5862,52 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>3.655350507925079e-08</v>
+        <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>4.499999999999982e-05</v>
+        <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0001404658332212609</v>
+        <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>1.229225827110343e-13</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>9.28152435362118e-09</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>1.770162351417247e-07</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>2.33244338359738e-15</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>9.317136952885529e-13</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>6.115824220856154e-11</v>
+        <v>0</v>
       </c>
       <c r="K99" t="n">
-        <v>4.687117569782239e-09</v>
+        <v>0</v>
       </c>
       <c r="L99" t="n">
-        <v>4.366501943313807e-14</v>
+        <v>0</v>
       </c>
       <c r="M99" t="n">
-        <v>5.511735248456708e-12</v>
+        <v>0</v>
       </c>
       <c r="N99" t="n">
-        <v>2.538295953976568e-08</v>
+        <v>0</v>
       </c>
       <c r="O99" t="n">
-        <v>8.522792459726108e-10</v>
+        <v>0</v>
       </c>
       <c r="P99" t="n">
-        <v>1.088176287154085e-08</v>
+        <v>0</v>
       </c>
       <c r="Q99" t="n">
-        <v>1.327429271872057e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -6632,52 +6632,52 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.0207626642643254</v>
+        <v>0.02071294783428889</v>
       </c>
       <c r="C113" t="n">
-        <v>3.036528</v>
+        <v>3.029257</v>
       </c>
       <c r="D113" t="n">
-        <v>109.1661598971222</v>
+        <v>108.9047603155567</v>
       </c>
       <c r="E113" t="n">
-        <v>0.0004701410697462837</v>
+        <v>0.0004690153117364365</v>
       </c>
       <c r="F113" t="n">
-        <v>0.01185414054432944</v>
+        <v>0.01182575567322079</v>
       </c>
       <c r="G113" t="n">
-        <v>0.06458059451380241</v>
+        <v>0.06442595556342558</v>
       </c>
       <c r="H113" t="n">
-        <v>2.181768096965225e-09</v>
+        <v>2.176543829040465e-09</v>
       </c>
       <c r="I113" t="n">
-        <v>6.835897895498715e-08</v>
+        <v>6.819529262112764e-08</v>
       </c>
       <c r="J113" t="n">
-        <v>0.3370701901373807</v>
+        <v>0.3362630718257797</v>
       </c>
       <c r="K113" t="n">
-        <v>160.385498935606</v>
+        <v>160.0014540782028</v>
       </c>
       <c r="L113" t="n">
-        <v>4.104970241318968e-05</v>
+        <v>4.095140844512934e-05</v>
       </c>
       <c r="M113" t="n">
-        <v>1.880376644453629e-07</v>
+        <v>1.875874061707209e-07</v>
       </c>
       <c r="N113" t="n">
-        <v>0.03398033038372954</v>
+        <v>0.03389896410546037</v>
       </c>
       <c r="O113" t="n">
-        <v>6.474822114325813</v>
+        <v>6.459318080905649</v>
       </c>
       <c r="P113" t="n">
-        <v>64.26710536671732</v>
+        <v>64.11321706958275</v>
       </c>
       <c r="Q113" t="n">
-        <v>8.195668082858716e-07</v>
+        <v>8.176043464666337e-07</v>
       </c>
     </row>
     <row r="114">
@@ -6687,52 +6687,52 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.01469859313831918</v>
+        <v>0.014643167284671</v>
       </c>
       <c r="C114" t="n">
-        <v>2.149661</v>
+        <v>2.141555</v>
       </c>
       <c r="D114" t="n">
-        <v>77.28242138738993</v>
+        <v>76.99100273683703</v>
       </c>
       <c r="E114" t="n">
-        <v>0.0003328287841020644</v>
+        <v>0.0003315737442962851</v>
       </c>
       <c r="F114" t="n">
-        <v>0.008391947519227165</v>
+        <v>0.008360302935922702</v>
       </c>
       <c r="G114" t="n">
-        <v>0.04571878980965599</v>
+        <v>0.04554639215709725</v>
       </c>
       <c r="H114" t="n">
-        <v>1.544547519104166e-09</v>
+        <v>1.538723297429279e-09</v>
       </c>
       <c r="I114" t="n">
-        <v>4.839363610655252e-08</v>
+        <v>4.821115207103264e-08</v>
       </c>
       <c r="J114" t="n">
-        <v>0.2386234021227246</v>
+        <v>0.2377235945262678</v>
       </c>
       <c r="K114" t="n">
-        <v>113.542325981323</v>
+        <v>113.1141774991183</v>
       </c>
       <c r="L114" t="n">
-        <v>2.906047444293014e-05</v>
+        <v>2.895089241774831e-05</v>
       </c>
       <c r="M114" t="n">
-        <v>1.331182303569352e-07</v>
+        <v>1.326162645235906e-07</v>
       </c>
       <c r="N114" t="n">
-        <v>0.02405582658648907</v>
+        <v>0.02396511622317593</v>
       </c>
       <c r="O114" t="n">
-        <v>4.583745837714551</v>
+        <v>4.566461324593406</v>
       </c>
       <c r="P114" t="n">
-        <v>45.49686022645697</v>
+        <v>45.32529943198954</v>
       </c>
       <c r="Q114" t="n">
-        <v>5.801990973462504e-07</v>
+        <v>5.780112668543316e-07</v>
       </c>
     </row>
   </sheetData>
